--- a/yabuki-a/PM演習矢吹a/EVM.xlsx
+++ b/yabuki-a/PM演習矢吹a/EVM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18312" windowHeight="7128" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="7125" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ガント" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="参考→" sheetId="6" r:id="rId4"/>
     <sheet name="予定表" sheetId="4" r:id="rId5"/>
     <sheet name="データ" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ガント!$A$4:$DR$70</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="155">
   <si>
     <t>WBS番号</t>
     <rPh sb="3" eb="5">
@@ -1352,6 +1353,13 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>行</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1951,6 +1959,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1967,30 +1983,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2013,29 +2030,20 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5468,13 +5476,13 @@
                   <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>#N/A</c:v>
@@ -5607,13 +5615,13 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>#N/A</c:v>
@@ -5647,11 +5655,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="261486512"/>
-        <c:axId val="261487072"/>
+        <c:axId val="169658864"/>
+        <c:axId val="169659424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="261486512"/>
+        <c:axId val="169658864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5661,14 +5669,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261487072"/>
+        <c:crossAx val="169659424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="261487072"/>
+        <c:axId val="169659424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5689,7 +5697,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261486512"/>
+        <c:crossAx val="169658864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6189,79 +6197,79 @@
       <selection pane="bottomRight" activeCell="I19" sqref="I19:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
-    <col min="5" max="8" width="4.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="2" customWidth="1"/>
-    <col min="11" max="122" width="2.33203125" style="2" customWidth="1"/>
-    <col min="123" max="16384" width="2.6640625" style="2"/>
+    <col min="1" max="1" width="5.625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="2" customWidth="1"/>
+    <col min="5" max="8" width="4.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="2" customWidth="1"/>
+    <col min="11" max="122" width="2.375" style="2" customWidth="1"/>
+    <col min="123" max="16384" width="2.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:122" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:122" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="88"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="83" t="s">
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="80" t="s">
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="78" t="s">
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="74"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="87"/>
+      <c r="AM1" s="88"/>
+      <c r="AN1" s="88"/>
+      <c r="AO1" s="88"/>
+      <c r="AP1" s="89"/>
     </row>
-    <row r="2" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:122" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="D2" s="10" t="s">
         <v>29</v>
@@ -6287,26 +6295,26 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:122" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+    <row r="3" spans="1:122" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79" t="s">
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="16" t="s">
@@ -6433,11 +6441,11 @@
       <c r="DQ3" s="6"/>
       <c r="DR3" s="7"/>
     </row>
-    <row r="4" spans="1:122" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+    <row r="4" spans="1:122" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="91"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="14" t="str">
         <f>データ!A2</f>
         <v>若月</v>
@@ -6454,7 +6462,7 @@
         <f>IF(データ!A5&lt;&gt;"",データ!A5,"－")</f>
         <v>－</v>
       </c>
-      <c r="I4" s="79"/>
+      <c r="I4" s="76"/>
       <c r="J4" s="17" t="s">
         <v>22</v>
       </c>
@@ -6795,20 +6803,20 @@
         <v>41851</v>
       </c>
     </row>
-    <row r="5" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A5" s="77">
-        <v>0</v>
-      </c>
-      <c r="B5" s="68" t="s">
+    <row r="5" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A5" s="68">
+        <v>0</v>
+      </c>
+      <c r="B5" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
       <c r="J5" s="12" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K5:DR5)/データ!$D$2,"")</f>
         <v/>
@@ -6926,16 +6934,16 @@
       <c r="DQ5" s="37"/>
       <c r="DR5" s="38"/>
     </row>
-    <row r="6" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A6" s="77"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
+    <row r="6" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A6" s="68"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
       <c r="J6" s="13" t="str">
         <f>IF(C5&lt;&gt;"",SUM(K6:DR6)/データ!$D$2,"")</f>
         <v/>
@@ -7053,20 +7061,20 @@
       <c r="DQ6" s="40"/>
       <c r="DR6" s="41"/>
     </row>
-    <row r="7" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A7" s="77">
+    <row r="7" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A7" s="68">
         <v>1</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="12" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K7:DR7)/データ!$D$2,"")</f>
         <v/>
@@ -7184,16 +7192,16 @@
       <c r="DQ7" s="37"/>
       <c r="DR7" s="38"/>
     </row>
-    <row r="8" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
+    <row r="8" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
       <c r="J8" s="13" t="str">
         <f>IF(C7&lt;&gt;"",SUM(K8:DR8)/データ!$D$2,"")</f>
         <v/>
@@ -7311,28 +7319,28 @@
       <c r="DQ8" s="40"/>
       <c r="DR8" s="41"/>
     </row>
-    <row r="9" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A9" s="77">
+    <row r="9" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A9" s="68">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="68" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="70" t="s">
+      <c r="G9" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70" t="s">
+      <c r="H9" s="72"/>
+      <c r="I9" s="72" t="s">
         <v>108</v>
       </c>
       <c r="J9" s="12">
@@ -7464,16 +7472,16 @@
       <c r="DQ9" s="37"/>
       <c r="DR9" s="38"/>
     </row>
-    <row r="10" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
+    <row r="10" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
       <c r="J10" s="13">
         <f>IF(C9&lt;&gt;"",SUM(K10:DR10)/データ!$D$2,"")</f>
         <v>1</v>
@@ -7601,28 +7609,28 @@
       <c r="DQ10" s="40"/>
       <c r="DR10" s="41"/>
     </row>
-    <row r="11" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A11" s="77">
+    <row r="11" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A11" s="68">
         <v>1.2</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70" t="s">
+      <c r="H11" s="72"/>
+      <c r="I11" s="72" t="s">
         <v>108</v>
       </c>
       <c r="J11" s="12">
@@ -7752,16 +7760,16 @@
       <c r="DQ11" s="37"/>
       <c r="DR11" s="38"/>
     </row>
-    <row r="12" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
+    <row r="12" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
       <c r="J12" s="13">
         <f>IF(C11&lt;&gt;"",SUM(K12:DR12)/データ!$D$2,"")</f>
         <v>4.5</v>
@@ -7905,20 +7913,20 @@
       <c r="DQ12" s="40"/>
       <c r="DR12" s="41"/>
     </row>
-    <row r="13" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A13" s="68">
+    <row r="13" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A13" s="70">
         <v>2</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
       <c r="J13" s="12" t="str">
         <f>IF(C13&lt;&gt;"",SUM(K13:DR13)/データ!$D$2,"")</f>
         <v/>
@@ -8036,16 +8044,16 @@
       <c r="DQ13" s="37"/>
       <c r="DR13" s="38"/>
     </row>
-    <row r="14" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A14" s="69"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
+    <row r="14" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
       <c r="J14" s="13" t="str">
         <f>IF(C13&lt;&gt;"",SUM(K14:DR14)/データ!$D$2,"")</f>
         <v/>
@@ -8163,28 +8171,28 @@
       <c r="DQ14" s="40"/>
       <c r="DR14" s="41"/>
     </row>
-    <row r="15" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A15" s="68">
+    <row r="15" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A15" s="70">
         <v>2.1</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68" t="s">
+      <c r="B15" s="70"/>
+      <c r="C15" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="70" t="s">
+      <c r="G15" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70" t="s">
+      <c r="H15" s="72"/>
+      <c r="I15" s="72" t="s">
         <v>108</v>
       </c>
       <c r="J15" s="12">
@@ -8318,16 +8326,16 @@
       <c r="DQ15" s="37"/>
       <c r="DR15" s="38"/>
     </row>
-    <row r="16" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
+    <row r="16" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
       <c r="J16" s="13">
         <f>IF(C15&lt;&gt;"",SUM(K16:DR16)/データ!$D$2,"")</f>
         <v>7.5</v>
@@ -8475,20 +8483,20 @@
       <c r="DQ16" s="40"/>
       <c r="DR16" s="41"/>
     </row>
-    <row r="17" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A17" s="68">
+    <row r="17" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A17" s="70">
         <v>3</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="12" t="str">
         <f>IF(C17&lt;&gt;"",SUM(K17:DR17)/データ!$D$2,"")</f>
         <v/>
@@ -8606,16 +8614,16 @@
       <c r="DQ17" s="37"/>
       <c r="DR17" s="38"/>
     </row>
-    <row r="18" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
+    <row r="18" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
       <c r="J18" s="13" t="str">
         <f>IF(C17&lt;&gt;"",SUM(K18:DR18)/データ!$D$2,"")</f>
         <v/>
@@ -8733,28 +8741,28 @@
       <c r="DQ18" s="40"/>
       <c r="DR18" s="41"/>
     </row>
-    <row r="19" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A19" s="68">
+    <row r="19" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A19" s="70">
         <v>3.1</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68" t="s">
+      <c r="B19" s="70"/>
+      <c r="C19" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="70" t="s">
+      <c r="G19" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70" t="s">
+      <c r="H19" s="72"/>
+      <c r="I19" s="72" t="s">
         <v>108</v>
       </c>
       <c r="J19" s="12">
@@ -8894,16 +8902,16 @@
       <c r="DQ19" s="37"/>
       <c r="DR19" s="38"/>
     </row>
-    <row r="20" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
+    <row r="20" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
       <c r="J20" s="13">
         <f>IF(C19&lt;&gt;"",SUM(K20:DR20)/データ!$D$2,"")</f>
         <v>6</v>
@@ -9053,28 +9061,28 @@
       <c r="DQ20" s="40"/>
       <c r="DR20" s="41"/>
     </row>
-    <row r="21" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="68">
+    <row r="21" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="70">
         <v>3.2</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68" t="s">
+      <c r="B21" s="70"/>
+      <c r="C21" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="70" t="s">
+      <c r="F21" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="70" t="s">
+      <c r="G21" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70" t="s">
+      <c r="H21" s="72"/>
+      <c r="I21" s="72" t="s">
         <v>150</v>
       </c>
       <c r="J21" s="12">
@@ -9204,16 +9212,16 @@
       <c r="DQ21" s="37"/>
       <c r="DR21" s="38"/>
     </row>
-    <row r="22" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
+    <row r="22" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
       <c r="J22" s="13">
         <f>IF(C21&lt;&gt;"",SUM(K22:DR22)/データ!$D$2,"")</f>
         <v>0.375</v>
@@ -9333,20 +9341,20 @@
       <c r="DQ22" s="40"/>
       <c r="DR22" s="41"/>
     </row>
-    <row r="23" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A23" s="68">
+    <row r="23" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A23" s="70">
         <v>4</v>
       </c>
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
       <c r="J23" s="12" t="str">
         <f>IF(C23&lt;&gt;"",SUM(K23:DR23)/データ!$D$2,"")</f>
         <v/>
@@ -9464,16 +9472,16 @@
       <c r="DQ23" s="37"/>
       <c r="DR23" s="38"/>
     </row>
-    <row r="24" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
+    <row r="24" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
       <c r="J24" s="13" t="str">
         <f>IF(C23&lt;&gt;"",SUM(K24:DR24)/データ!$D$2,"")</f>
         <v/>
@@ -9591,28 +9599,28 @@
       <c r="DQ24" s="40"/>
       <c r="DR24" s="41"/>
     </row>
-    <row r="25" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="68">
+    <row r="25" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="70">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68" t="s">
+      <c r="B25" s="70"/>
+      <c r="C25" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="70" t="s">
+      <c r="F25" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="70" t="s">
+      <c r="G25" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70" t="s">
+      <c r="H25" s="72"/>
+      <c r="I25" s="72" t="s">
         <v>112</v>
       </c>
       <c r="J25" s="12">
@@ -9742,16 +9750,16 @@
       <c r="DQ25" s="37"/>
       <c r="DR25" s="38"/>
     </row>
-    <row r="26" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
+    <row r="26" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
       <c r="J26" s="13">
         <f>IF(C25&lt;&gt;"",SUM(K26:DR26)/データ!$D$2,"")</f>
         <v>0.375</v>
@@ -9875,20 +9883,20 @@
       <c r="DQ26" s="40"/>
       <c r="DR26" s="41"/>
     </row>
-    <row r="27" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="68">
+    <row r="27" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="70">
         <v>5</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
       <c r="J27" s="12" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K27:DR27)/データ!$D$2,"")</f>
         <v/>
@@ -10006,16 +10014,16 @@
       <c r="DQ27" s="37"/>
       <c r="DR27" s="38"/>
     </row>
-    <row r="28" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A28" s="69"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
+    <row r="28" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
       <c r="J28" s="13" t="str">
         <f>IF(C27&lt;&gt;"",SUM(K28:DR28)/データ!$D$2,"")</f>
         <v/>
@@ -10133,28 +10141,28 @@
       <c r="DQ28" s="40"/>
       <c r="DR28" s="41"/>
     </row>
-    <row r="29" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A29" s="68">
+    <row r="29" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A29" s="70">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68" t="s">
+      <c r="B29" s="70"/>
+      <c r="C29" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="F29" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70" t="s">
+      <c r="H29" s="72"/>
+      <c r="I29" s="72" t="s">
         <v>45</v>
       </c>
       <c r="J29" s="12">
@@ -10284,16 +10292,16 @@
       <c r="DQ29" s="37"/>
       <c r="DR29" s="38"/>
     </row>
-    <row r="30" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A30" s="69"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
+    <row r="30" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A30" s="71"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
       <c r="J30" s="13">
         <f>IF(C29&lt;&gt;"",SUM(K30:DR30)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10411,20 +10419,20 @@
       <c r="DQ30" s="40"/>
       <c r="DR30" s="41"/>
     </row>
-    <row r="31" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A31" s="68">
+    <row r="31" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A31" s="70">
         <v>6</v>
       </c>
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
       <c r="J31" s="12" t="str">
         <f>IF(C31&lt;&gt;"",SUM(K31:DR31)/データ!$D$2,"")</f>
         <v/>
@@ -10542,16 +10550,16 @@
       <c r="DQ31" s="37"/>
       <c r="DR31" s="38"/>
     </row>
-    <row r="32" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A32" s="69"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
+    <row r="32" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A32" s="71"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
       <c r="J32" s="13" t="str">
         <f>IF(C31&lt;&gt;"",SUM(K32:DR32)/データ!$D$2,"")</f>
         <v/>
@@ -10669,28 +10677,28 @@
       <c r="DQ32" s="40"/>
       <c r="DR32" s="41"/>
     </row>
-    <row r="33" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="68">
+    <row r="33" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="70">
         <v>6.1</v>
       </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68" t="s">
+      <c r="B33" s="70"/>
+      <c r="C33" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="70" t="s">
+      <c r="F33" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="70" t="s">
+      <c r="G33" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70" t="s">
+      <c r="H33" s="72"/>
+      <c r="I33" s="72" t="s">
         <v>45</v>
       </c>
       <c r="J33" s="12">
@@ -10820,16 +10828,16 @@
       <c r="DQ33" s="37"/>
       <c r="DR33" s="38"/>
     </row>
-    <row r="34" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A34" s="69"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
+    <row r="34" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A34" s="71"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
       <c r="J34" s="13">
         <f>IF(C33&lt;&gt;"",SUM(K34:DR34)/データ!$D$2,"")</f>
         <v>0</v>
@@ -10947,28 +10955,28 @@
       <c r="DQ34" s="40"/>
       <c r="DR34" s="41"/>
     </row>
-    <row r="35" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A35" s="68">
+    <row r="35" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A35" s="70">
         <v>6.2</v>
       </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68" t="s">
+      <c r="B35" s="70"/>
+      <c r="C35" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="68" t="s">
+      <c r="D35" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="70" t="s">
+      <c r="F35" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="70" t="s">
+      <c r="G35" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70" t="s">
+      <c r="H35" s="72"/>
+      <c r="I35" s="72" t="s">
         <v>45</v>
       </c>
       <c r="J35" s="12">
@@ -11098,16 +11106,16 @@
       <c r="DQ35" s="37"/>
       <c r="DR35" s="38"/>
     </row>
-    <row r="36" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A36" s="69"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
+    <row r="36" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A36" s="71"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
       <c r="J36" s="13">
         <f>IF(C35&lt;&gt;"",SUM(K36:DR36)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11225,20 +11233,20 @@
       <c r="DQ36" s="40"/>
       <c r="DR36" s="41"/>
     </row>
-    <row r="37" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A37" s="68">
+    <row r="37" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A37" s="70">
         <v>7</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
       <c r="J37" s="12" t="str">
         <f>IF(C37&lt;&gt;"",SUM(K37:DR37)/データ!$D$2,"")</f>
         <v/>
@@ -11356,16 +11364,16 @@
       <c r="DQ37" s="37"/>
       <c r="DR37" s="38"/>
     </row>
-    <row r="38" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A38" s="69"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
+    <row r="38" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A38" s="71"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
       <c r="J38" s="13" t="str">
         <f>IF(C37&lt;&gt;"",SUM(K38:DR38)/データ!$D$2,"")</f>
         <v/>
@@ -11483,28 +11491,28 @@
       <c r="DQ38" s="40"/>
       <c r="DR38" s="41"/>
     </row>
-    <row r="39" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="68">
+    <row r="39" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="70">
         <v>7.1</v>
       </c>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68" t="s">
+      <c r="B39" s="70"/>
+      <c r="C39" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="70" t="s">
+      <c r="E39" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="70" t="s">
+      <c r="F39" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="70" t="s">
+      <c r="G39" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70" t="s">
+      <c r="H39" s="72"/>
+      <c r="I39" s="72" t="s">
         <v>45</v>
       </c>
       <c r="J39" s="12">
@@ -11634,16 +11642,16 @@
       <c r="DQ39" s="37"/>
       <c r="DR39" s="38"/>
     </row>
-    <row r="40" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A40" s="69"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
+    <row r="40" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A40" s="71"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
       <c r="J40" s="13">
         <f>IF(C39&lt;&gt;"",SUM(K40:DR40)/データ!$D$2,"")</f>
         <v>0</v>
@@ -11761,28 +11769,28 @@
       <c r="DQ40" s="40"/>
       <c r="DR40" s="41"/>
     </row>
-    <row r="41" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A41" s="68">
+    <row r="41" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A41" s="70">
         <v>7.2</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68" t="s">
+      <c r="B41" s="70"/>
+      <c r="C41" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="70" t="s">
+      <c r="F41" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="70" t="s">
+      <c r="G41" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70" t="s">
+      <c r="H41" s="72"/>
+      <c r="I41" s="72" t="s">
         <v>45</v>
       </c>
       <c r="J41" s="12">
@@ -11906,16 +11914,16 @@
       <c r="DQ41" s="37"/>
       <c r="DR41" s="38"/>
     </row>
-    <row r="42" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A42" s="69"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
+    <row r="42" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A42" s="71"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
       <c r="J42" s="13">
         <f>IF(C41&lt;&gt;"",SUM(K42:DR42)/データ!$D$2,"")</f>
         <v>0</v>
@@ -12033,28 +12041,28 @@
       <c r="DQ42" s="40"/>
       <c r="DR42" s="41"/>
     </row>
-    <row r="43" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A43" s="68">
+    <row r="43" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A43" s="70">
         <v>7.3</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68" t="s">
+      <c r="B43" s="70"/>
+      <c r="C43" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="E43" s="70" t="s">
+      <c r="E43" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="70" t="s">
+      <c r="F43" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G43" s="70" t="s">
+      <c r="G43" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70" t="s">
+      <c r="H43" s="72"/>
+      <c r="I43" s="72" t="s">
         <v>45</v>
       </c>
       <c r="J43" s="12">
@@ -12180,16 +12188,16 @@
       <c r="DQ43" s="37"/>
       <c r="DR43" s="38"/>
     </row>
-    <row r="44" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A44" s="69"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
+    <row r="44" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A44" s="71"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
       <c r="J44" s="13">
         <f>IF(C43&lt;&gt;"",SUM(K44:DR44)/データ!$D$2,"")</f>
         <v>0</v>
@@ -12307,20 +12315,20 @@
       <c r="DQ44" s="40"/>
       <c r="DR44" s="41"/>
     </row>
-    <row r="45" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A45" s="68">
+    <row r="45" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A45" s="70">
         <v>8</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
       <c r="J45" s="12" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K45:DR45)/データ!$D$2,"")</f>
         <v/>
@@ -12438,16 +12446,16 @@
       <c r="DQ45" s="37"/>
       <c r="DR45" s="38"/>
     </row>
-    <row r="46" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A46" s="69"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
+    <row r="46" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A46" s="71"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
       <c r="J46" s="13" t="str">
         <f>IF(C45&lt;&gt;"",SUM(K46:DR46)/データ!$D$2,"")</f>
         <v/>
@@ -12565,28 +12573,28 @@
       <c r="DQ46" s="40"/>
       <c r="DR46" s="41"/>
     </row>
-    <row r="47" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A47" s="68">
+    <row r="47" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A47" s="70">
         <v>8.1</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68" t="s">
+      <c r="B47" s="70"/>
+      <c r="C47" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="D47" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="E47" s="70" t="s">
+      <c r="E47" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="70" t="s">
+      <c r="F47" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G47" s="70" t="s">
+      <c r="G47" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70" t="s">
+      <c r="H47" s="72"/>
+      <c r="I47" s="72" t="s">
         <v>45</v>
       </c>
       <c r="J47" s="12">
@@ -12708,16 +12716,16 @@
       <c r="DQ47" s="37"/>
       <c r="DR47" s="38"/>
     </row>
-    <row r="48" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A48" s="69"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
+    <row r="48" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A48" s="71"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
       <c r="J48" s="13">
         <f>IF(C47&lt;&gt;"",SUM(K48:DR48)/データ!$D$2,"")</f>
         <v>0</v>
@@ -12835,20 +12843,20 @@
       <c r="DQ48" s="40"/>
       <c r="DR48" s="41"/>
     </row>
-    <row r="49" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A49" s="68">
+    <row r="49" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A49" s="70">
         <v>9</v>
       </c>
-      <c r="B49" s="68" t="s">
+      <c r="B49" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
       <c r="J49" s="12" t="str">
         <f>IF(C49&lt;&gt;"",SUM(K49:DR49)/データ!$D$2,"")</f>
         <v/>
@@ -12966,16 +12974,16 @@
       <c r="DQ49" s="37"/>
       <c r="DR49" s="38"/>
     </row>
-    <row r="50" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A50" s="69"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
+    <row r="50" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A50" s="71"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
       <c r="J50" s="13" t="str">
         <f>IF(C49&lt;&gt;"",SUM(K50:DR50)/データ!$D$2,"")</f>
         <v/>
@@ -13093,28 +13101,28 @@
       <c r="DQ50" s="40"/>
       <c r="DR50" s="41"/>
     </row>
-    <row r="51" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A51" s="68">
+    <row r="51" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A51" s="70">
         <v>9.1</v>
       </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68" t="s">
+      <c r="B51" s="70"/>
+      <c r="C51" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="D51" s="68" t="s">
+      <c r="D51" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="E51" s="70" t="s">
+      <c r="E51" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="70" t="s">
+      <c r="F51" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G51" s="70" t="s">
+      <c r="G51" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70" t="s">
+      <c r="H51" s="72"/>
+      <c r="I51" s="72" t="s">
         <v>112</v>
       </c>
       <c r="J51" s="12">
@@ -13264,16 +13272,16 @@
       <c r="DQ51" s="37"/>
       <c r="DR51" s="38"/>
     </row>
-    <row r="52" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A52" s="69"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
+    <row r="52" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A52" s="71"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73"/>
       <c r="J52" s="13">
         <f>IF(C51&lt;&gt;"",SUM(K52:DR52)/データ!$D$2,"")</f>
         <v>0.875</v>
@@ -13405,28 +13413,28 @@
       <c r="DQ52" s="40"/>
       <c r="DR52" s="41"/>
     </row>
-    <row r="53" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A53" s="68">
+    <row r="53" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A53" s="70">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68" t="s">
+      <c r="B53" s="70"/>
+      <c r="C53" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="D53" s="68" t="s">
+      <c r="D53" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="E53" s="70" t="s">
+      <c r="E53" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F53" s="70" t="s">
+      <c r="F53" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G53" s="70" t="s">
+      <c r="G53" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70" t="s">
+      <c r="H53" s="72"/>
+      <c r="I53" s="72" t="s">
         <v>112</v>
       </c>
       <c r="J53" s="12">
@@ -13576,16 +13584,16 @@
       <c r="DQ53" s="37"/>
       <c r="DR53" s="38"/>
     </row>
-    <row r="54" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A54" s="69"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="71"/>
+    <row r="54" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A54" s="71"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
       <c r="J54" s="13">
         <f>IF(C53&lt;&gt;"",SUM(K54:DR54)/データ!$D$2,"")</f>
         <v>0.875</v>
@@ -13717,28 +13725,28 @@
       <c r="DQ54" s="40"/>
       <c r="DR54" s="41"/>
     </row>
-    <row r="55" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A55" s="68">
+    <row r="55" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A55" s="70">
         <v>9.3000000000000007</v>
       </c>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68" t="s">
+      <c r="B55" s="70"/>
+      <c r="C55" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="D55" s="68" t="s">
+      <c r="D55" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="E55" s="70" t="s">
+      <c r="E55" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="70" t="s">
+      <c r="F55" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G55" s="70" t="s">
+      <c r="G55" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70" t="s">
+      <c r="H55" s="72"/>
+      <c r="I55" s="72" t="s">
         <v>112</v>
       </c>
       <c r="J55" s="12">
@@ -13882,16 +13890,16 @@
       <c r="DQ55" s="37"/>
       <c r="DR55" s="38"/>
     </row>
-    <row r="56" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A56" s="69"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="71"/>
+    <row r="56" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A56" s="71"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
       <c r="J56" s="13">
         <f>IF(C55&lt;&gt;"",SUM(K56:DR56)/データ!$D$2,"")</f>
         <v>0.5</v>
@@ -14017,20 +14025,20 @@
       <c r="DQ56" s="40"/>
       <c r="DR56" s="41"/>
     </row>
-    <row r="57" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A57" s="68">
+    <row r="57" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A57" s="70">
         <v>10</v>
       </c>
-      <c r="B57" s="68" t="s">
+      <c r="B57" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
       <c r="J57" s="12" t="str">
         <f>IF(C57&lt;&gt;"",SUM(K57:DR57)/データ!$D$2,"")</f>
         <v/>
@@ -14148,16 +14156,16 @@
       <c r="DQ57" s="37"/>
       <c r="DR57" s="38"/>
     </row>
-    <row r="58" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A58" s="69"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="71"/>
+    <row r="58" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A58" s="71"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
       <c r="J58" s="13" t="str">
         <f>IF(C57&lt;&gt;"",SUM(K58:DR58)/データ!$D$2,"")</f>
         <v/>
@@ -14275,28 +14283,28 @@
       <c r="DQ58" s="40"/>
       <c r="DR58" s="41"/>
     </row>
-    <row r="59" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A59" s="68">
+    <row r="59" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A59" s="70">
         <v>10.1</v>
       </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="68" t="s">
+      <c r="B59" s="70"/>
+      <c r="C59" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="D59" s="68" t="s">
+      <c r="D59" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="70" t="s">
+      <c r="E59" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F59" s="70" t="s">
+      <c r="F59" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G59" s="70" t="s">
+      <c r="G59" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70" t="s">
+      <c r="H59" s="72"/>
+      <c r="I59" s="72" t="s">
         <v>45</v>
       </c>
       <c r="J59" s="12">
@@ -14426,16 +14434,16 @@
       <c r="DQ59" s="37"/>
       <c r="DR59" s="38"/>
     </row>
-    <row r="60" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A60" s="69"/>
-      <c r="B60" s="69"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
+    <row r="60" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A60" s="71"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
       <c r="J60" s="13">
         <f>IF(C59&lt;&gt;"",SUM(K60:DR60)/データ!$D$2,"")</f>
         <v>0</v>
@@ -14553,28 +14561,28 @@
       <c r="DQ60" s="40"/>
       <c r="DR60" s="41"/>
     </row>
-    <row r="61" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A61" s="68">
+    <row r="61" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A61" s="70">
         <v>10.199999999999999</v>
       </c>
-      <c r="B61" s="68"/>
-      <c r="C61" s="68" t="s">
+      <c r="B61" s="70"/>
+      <c r="C61" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="D61" s="68" t="s">
+      <c r="D61" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="E61" s="70" t="s">
+      <c r="E61" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="70" t="s">
+      <c r="F61" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G61" s="70" t="s">
+      <c r="G61" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H61" s="70"/>
-      <c r="I61" s="70" t="s">
+      <c r="H61" s="72"/>
+      <c r="I61" s="72" t="s">
         <v>45</v>
       </c>
       <c r="J61" s="12">
@@ -14704,16 +14712,16 @@
       <c r="DQ61" s="37"/>
       <c r="DR61" s="38"/>
     </row>
-    <row r="62" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A62" s="69"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="71"/>
+    <row r="62" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A62" s="71"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
       <c r="J62" s="13">
         <f>IF(C61&lt;&gt;"",SUM(K62:DR62)/データ!$D$2,"")</f>
         <v>0</v>
@@ -14831,28 +14839,28 @@
       <c r="DQ62" s="40"/>
       <c r="DR62" s="41"/>
     </row>
-    <row r="63" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A63" s="68">
+    <row r="63" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A63" s="70">
         <v>10.3</v>
       </c>
-      <c r="B63" s="68"/>
-      <c r="C63" s="68" t="s">
+      <c r="B63" s="70"/>
+      <c r="C63" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="D63" s="68" t="s">
+      <c r="D63" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="E63" s="70" t="s">
+      <c r="E63" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="70" t="s">
+      <c r="F63" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G63" s="70" t="s">
+      <c r="G63" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H63" s="70"/>
-      <c r="I63" s="70" t="s">
+      <c r="H63" s="72"/>
+      <c r="I63" s="72" t="s">
         <v>45</v>
       </c>
       <c r="J63" s="12">
@@ -14982,16 +14990,16 @@
       <c r="DQ63" s="37"/>
       <c r="DR63" s="38"/>
     </row>
-    <row r="64" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A64" s="69"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="71"/>
+    <row r="64" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A64" s="71"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
       <c r="J64" s="13">
         <f>IF(C63&lt;&gt;"",SUM(K64:DR64)/データ!$D$2,"")</f>
         <v>0</v>
@@ -15109,16 +15117,16 @@
       <c r="DQ64" s="40"/>
       <c r="DR64" s="41"/>
     </row>
-    <row r="65" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A65" s="68"/>
-      <c r="B65" s="68"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="70"/>
-      <c r="I65" s="70"/>
+    <row r="65" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A65" s="70"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="72"/>
       <c r="J65" s="12" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K65:DR65)/データ!$D$2,"")</f>
         <v/>
@@ -15236,16 +15244,16 @@
       <c r="DQ65" s="37"/>
       <c r="DR65" s="38"/>
     </row>
-    <row r="66" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A66" s="69"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="71"/>
+    <row r="66" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A66" s="71"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="73"/>
       <c r="J66" s="13" t="str">
         <f>IF(C65&lt;&gt;"",SUM(K66:DR66)/データ!$D$2,"")</f>
         <v/>
@@ -15363,16 +15371,16 @@
       <c r="DQ66" s="40"/>
       <c r="DR66" s="41"/>
     </row>
-    <row r="67" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A67" s="68"/>
-      <c r="B67" s="68"/>
-      <c r="C67" s="68"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="70"/>
-      <c r="I67" s="70"/>
+    <row r="67" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A67" s="70"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
       <c r="J67" s="12" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K67:DR67)/データ!$D$2,"")</f>
         <v/>
@@ -15490,16 +15498,16 @@
       <c r="DQ67" s="37"/>
       <c r="DR67" s="38"/>
     </row>
-    <row r="68" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A68" s="69"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="71"/>
+    <row r="68" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A68" s="71"/>
+      <c r="B68" s="71"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="73"/>
+      <c r="H68" s="73"/>
+      <c r="I68" s="73"/>
       <c r="J68" s="13" t="str">
         <f>IF(C67&lt;&gt;"",SUM(K68:DR68)/データ!$D$2,"")</f>
         <v/>
@@ -15617,16 +15625,16 @@
       <c r="DQ68" s="40"/>
       <c r="DR68" s="41"/>
     </row>
-    <row r="69" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A69" s="68"/>
-      <c r="B69" s="68"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="70"/>
-      <c r="H69" s="70"/>
-      <c r="I69" s="70"/>
+    <row r="69" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A69" s="70"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="72"/>
+      <c r="H69" s="72"/>
+      <c r="I69" s="72"/>
       <c r="J69" s="12" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K69:DR69)/データ!$D$2,"")</f>
         <v/>
@@ -15744,16 +15752,16 @@
       <c r="DQ69" s="37"/>
       <c r="DR69" s="38"/>
     </row>
-    <row r="70" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A70" s="69"/>
-      <c r="B70" s="69"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="71"/>
+    <row r="70" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A70" s="71"/>
+      <c r="B70" s="71"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="73"/>
       <c r="J70" s="13" t="str">
         <f>IF(C69&lt;&gt;"",SUM(K70:DR70)/データ!$D$2,"")</f>
         <v/>
@@ -15871,16 +15879,16 @@
       <c r="DQ70" s="40"/>
       <c r="DR70" s="41"/>
     </row>
-    <row r="71" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A71" s="68"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
-      <c r="I71" s="70"/>
+    <row r="71" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A71" s="70"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="72"/>
       <c r="J71" s="12" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K71:DR71)/データ!$D$2,"")</f>
         <v/>
@@ -15998,16 +16006,16 @@
       <c r="DQ71" s="37"/>
       <c r="DR71" s="38"/>
     </row>
-    <row r="72" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A72" s="69"/>
-      <c r="B72" s="69"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="71"/>
+    <row r="72" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A72" s="71"/>
+      <c r="B72" s="71"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="73"/>
       <c r="J72" s="13" t="str">
         <f>IF(C71&lt;&gt;"",SUM(K72:DR72)/データ!$D$2,"")</f>
         <v/>
@@ -16125,16 +16133,16 @@
       <c r="DQ72" s="40"/>
       <c r="DR72" s="41"/>
     </row>
-    <row r="73" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A73" s="68"/>
-      <c r="B73" s="68"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70"/>
-      <c r="I73" s="70"/>
+    <row r="73" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A73" s="70"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
       <c r="J73" s="12" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K73:DR73)/データ!$D$2,"")</f>
         <v/>
@@ -16252,16 +16260,16 @@
       <c r="DQ73" s="37"/>
       <c r="DR73" s="38"/>
     </row>
-    <row r="74" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A74" s="69"/>
-      <c r="B74" s="69"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
+    <row r="74" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A74" s="71"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="73"/>
       <c r="J74" s="13" t="str">
         <f>IF(C73&lt;&gt;"",SUM(K74:DR74)/データ!$D$2,"")</f>
         <v/>
@@ -16379,16 +16387,16 @@
       <c r="DQ74" s="40"/>
       <c r="DR74" s="41"/>
     </row>
-    <row r="75" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A75" s="68"/>
-      <c r="B75" s="68"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
-      <c r="I75" s="70"/>
+    <row r="75" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A75" s="70"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
       <c r="J75" s="12" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K75:DR75)/データ!$D$2,"")</f>
         <v/>
@@ -16506,16 +16514,16 @@
       <c r="DQ75" s="37"/>
       <c r="DR75" s="38"/>
     </row>
-    <row r="76" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A76" s="69"/>
-      <c r="B76" s="69"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="71"/>
+    <row r="76" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A76" s="71"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="73"/>
+      <c r="H76" s="73"/>
+      <c r="I76" s="73"/>
       <c r="J76" s="13" t="str">
         <f>IF(C75&lt;&gt;"",SUM(K76:DR76)/データ!$D$2,"")</f>
         <v/>
@@ -16633,16 +16641,16 @@
       <c r="DQ76" s="40"/>
       <c r="DR76" s="41"/>
     </row>
-    <row r="77" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="68"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="70"/>
-      <c r="H77" s="70"/>
-      <c r="I77" s="70"/>
+    <row r="77" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="70"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="72"/>
       <c r="J77" s="12" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K77:DR77)/データ!$D$2,"")</f>
         <v/>
@@ -16760,16 +16768,16 @@
       <c r="DQ77" s="37"/>
       <c r="DR77" s="38"/>
     </row>
-    <row r="78" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A78" s="69"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="71"/>
+    <row r="78" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A78" s="71"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="73"/>
+      <c r="F78" s="73"/>
+      <c r="G78" s="73"/>
+      <c r="H78" s="73"/>
+      <c r="I78" s="73"/>
       <c r="J78" s="13" t="str">
         <f>IF(C77&lt;&gt;"",SUM(K78:DR78)/データ!$D$2,"")</f>
         <v/>
@@ -16887,16 +16895,16 @@
       <c r="DQ78" s="40"/>
       <c r="DR78" s="41"/>
     </row>
-    <row r="79" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A79" s="68"/>
-      <c r="B79" s="68"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="70"/>
-      <c r="H79" s="70"/>
-      <c r="I79" s="70"/>
+    <row r="79" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A79" s="70"/>
+      <c r="B79" s="70"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="70"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="72"/>
+      <c r="H79" s="72"/>
+      <c r="I79" s="72"/>
       <c r="J79" s="12" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K79:DR79)/データ!$D$2,"")</f>
         <v/>
@@ -17014,16 +17022,16 @@
       <c r="DQ79" s="37"/>
       <c r="DR79" s="38"/>
     </row>
-    <row r="80" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A80" s="69"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="71"/>
+    <row r="80" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A80" s="71"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="73"/>
+      <c r="I80" s="73"/>
       <c r="J80" s="13" t="str">
         <f>IF(C79&lt;&gt;"",SUM(K80:DR80)/データ!$D$2,"")</f>
         <v/>
@@ -17141,16 +17149,16 @@
       <c r="DQ80" s="40"/>
       <c r="DR80" s="41"/>
     </row>
-    <row r="81" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="68"/>
-      <c r="B81" s="68"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="70"/>
-      <c r="G81" s="70"/>
-      <c r="H81" s="70"/>
-      <c r="I81" s="70"/>
+    <row r="81" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="70"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="70"/>
+      <c r="D81" s="70"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="72"/>
+      <c r="I81" s="72"/>
       <c r="J81" s="12" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K81:DR81)/データ!$D$2,"")</f>
         <v/>
@@ -17268,16 +17276,16 @@
       <c r="DQ81" s="37"/>
       <c r="DR81" s="38"/>
     </row>
-    <row r="82" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A82" s="69"/>
-      <c r="B82" s="69"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="71"/>
+    <row r="82" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A82" s="71"/>
+      <c r="B82" s="71"/>
+      <c r="C82" s="71"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="73"/>
+      <c r="F82" s="73"/>
+      <c r="G82" s="73"/>
+      <c r="H82" s="73"/>
+      <c r="I82" s="73"/>
       <c r="J82" s="13" t="str">
         <f>IF(C81&lt;&gt;"",SUM(K82:DR82)/データ!$D$2,"")</f>
         <v/>
@@ -17395,16 +17403,16 @@
       <c r="DQ82" s="40"/>
       <c r="DR82" s="41"/>
     </row>
-    <row r="83" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="68"/>
-      <c r="B83" s="68"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="70"/>
-      <c r="F83" s="70"/>
-      <c r="G83" s="70"/>
-      <c r="H83" s="70"/>
-      <c r="I83" s="70"/>
+    <row r="83" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="70"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="72"/>
+      <c r="H83" s="72"/>
+      <c r="I83" s="72"/>
       <c r="J83" s="12" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K83:DR83)/データ!$D$2,"")</f>
         <v/>
@@ -17522,16 +17530,16 @@
       <c r="DQ83" s="37"/>
       <c r="DR83" s="38"/>
     </row>
-    <row r="84" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A84" s="69"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="71"/>
-      <c r="I84" s="71"/>
+    <row r="84" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A84" s="71"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="71"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="73"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="73"/>
+      <c r="H84" s="73"/>
+      <c r="I84" s="73"/>
       <c r="J84" s="13" t="str">
         <f>IF(C83&lt;&gt;"",SUM(K84:DR84)/データ!$D$2,"")</f>
         <v/>
@@ -17649,16 +17657,16 @@
       <c r="DQ84" s="40"/>
       <c r="DR84" s="41"/>
     </row>
-    <row r="85" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A85" s="68"/>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="70"/>
-      <c r="H85" s="70"/>
-      <c r="I85" s="70"/>
+    <row r="85" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A85" s="70"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="72"/>
+      <c r="H85" s="72"/>
+      <c r="I85" s="72"/>
       <c r="J85" s="12" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K85:DR85)/データ!$D$2,"")</f>
         <v/>
@@ -17776,16 +17784,16 @@
       <c r="DQ85" s="37"/>
       <c r="DR85" s="38"/>
     </row>
-    <row r="86" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A86" s="69"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="71"/>
-      <c r="I86" s="71"/>
+    <row r="86" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A86" s="71"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="73"/>
+      <c r="F86" s="73"/>
+      <c r="G86" s="73"/>
+      <c r="H86" s="73"/>
+      <c r="I86" s="73"/>
       <c r="J86" s="13" t="str">
         <f>IF(C85&lt;&gt;"",SUM(K86:DR86)/データ!$D$2,"")</f>
         <v/>
@@ -17903,16 +17911,16 @@
       <c r="DQ86" s="40"/>
       <c r="DR86" s="41"/>
     </row>
-    <row r="87" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A87" s="68"/>
-      <c r="B87" s="68"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="70"/>
-      <c r="H87" s="70"/>
-      <c r="I87" s="70"/>
+    <row r="87" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A87" s="70"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="70"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="72"/>
+      <c r="H87" s="72"/>
+      <c r="I87" s="72"/>
       <c r="J87" s="12" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K87:DR87)/データ!$D$2,"")</f>
         <v/>
@@ -18030,16 +18038,16 @@
       <c r="DQ87" s="37"/>
       <c r="DR87" s="38"/>
     </row>
-    <row r="88" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A88" s="69"/>
-      <c r="B88" s="69"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="71"/>
-      <c r="I88" s="71"/>
+    <row r="88" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A88" s="71"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="73"/>
+      <c r="F88" s="73"/>
+      <c r="G88" s="73"/>
+      <c r="H88" s="73"/>
+      <c r="I88" s="73"/>
       <c r="J88" s="13" t="str">
         <f>IF(C87&lt;&gt;"",SUM(K88:DR88)/データ!$D$2,"")</f>
         <v/>
@@ -18157,16 +18165,16 @@
       <c r="DQ88" s="40"/>
       <c r="DR88" s="41"/>
     </row>
-    <row r="89" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="68"/>
-      <c r="B89" s="68"/>
-      <c r="C89" s="68"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="70"/>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70"/>
-      <c r="I89" s="70"/>
+    <row r="89" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="70"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="70"/>
+      <c r="D89" s="70"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="72"/>
+      <c r="I89" s="72"/>
       <c r="J89" s="12" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K89:DR89)/データ!$D$2,"")</f>
         <v/>
@@ -18284,16 +18292,16 @@
       <c r="DQ89" s="37"/>
       <c r="DR89" s="38"/>
     </row>
-    <row r="90" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A90" s="69"/>
-      <c r="B90" s="69"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="71"/>
-      <c r="F90" s="71"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="71"/>
-      <c r="I90" s="71"/>
+    <row r="90" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A90" s="71"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="71"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="73"/>
+      <c r="F90" s="73"/>
+      <c r="G90" s="73"/>
+      <c r="H90" s="73"/>
+      <c r="I90" s="73"/>
       <c r="J90" s="13" t="str">
         <f>IF(C89&lt;&gt;"",SUM(K90:DR90)/データ!$D$2,"")</f>
         <v/>
@@ -18411,16 +18419,16 @@
       <c r="DQ90" s="40"/>
       <c r="DR90" s="41"/>
     </row>
-    <row r="91" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A91" s="68"/>
-      <c r="B91" s="68"/>
-      <c r="C91" s="68"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="70"/>
-      <c r="H91" s="70"/>
-      <c r="I91" s="70"/>
+    <row r="91" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A91" s="70"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="72"/>
+      <c r="H91" s="72"/>
+      <c r="I91" s="72"/>
       <c r="J91" s="12" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K91:DR91)/データ!$D$2,"")</f>
         <v/>
@@ -18538,16 +18546,16 @@
       <c r="DQ91" s="37"/>
       <c r="DR91" s="38"/>
     </row>
-    <row r="92" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A92" s="69"/>
-      <c r="B92" s="69"/>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="71"/>
-      <c r="F92" s="71"/>
-      <c r="G92" s="71"/>
-      <c r="H92" s="71"/>
-      <c r="I92" s="71"/>
+    <row r="92" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A92" s="71"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="71"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="73"/>
+      <c r="F92" s="73"/>
+      <c r="G92" s="73"/>
+      <c r="H92" s="73"/>
+      <c r="I92" s="73"/>
       <c r="J92" s="13" t="str">
         <f>IF(C91&lt;&gt;"",SUM(K92:DR92)/データ!$D$2,"")</f>
         <v/>
@@ -18665,16 +18673,16 @@
       <c r="DQ92" s="40"/>
       <c r="DR92" s="41"/>
     </row>
-    <row r="93" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A93" s="68"/>
-      <c r="B93" s="68"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="70"/>
-      <c r="G93" s="70"/>
-      <c r="H93" s="70"/>
-      <c r="I93" s="70"/>
+    <row r="93" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A93" s="70"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="70"/>
+      <c r="D93" s="70"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="72"/>
+      <c r="H93" s="72"/>
+      <c r="I93" s="72"/>
       <c r="J93" s="12" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K93:DR93)/データ!$D$2,"")</f>
         <v/>
@@ -18792,16 +18800,16 @@
       <c r="DQ93" s="37"/>
       <c r="DR93" s="38"/>
     </row>
-    <row r="94" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A94" s="69"/>
-      <c r="B94" s="69"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="71"/>
-      <c r="F94" s="71"/>
-      <c r="G94" s="71"/>
-      <c r="H94" s="71"/>
-      <c r="I94" s="71"/>
+    <row r="94" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A94" s="71"/>
+      <c r="B94" s="71"/>
+      <c r="C94" s="71"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="73"/>
+      <c r="F94" s="73"/>
+      <c r="G94" s="73"/>
+      <c r="H94" s="73"/>
+      <c r="I94" s="73"/>
       <c r="J94" s="13" t="str">
         <f>IF(C93&lt;&gt;"",SUM(K94:DR94)/データ!$D$2,"")</f>
         <v/>
@@ -18919,16 +18927,16 @@
       <c r="DQ94" s="40"/>
       <c r="DR94" s="41"/>
     </row>
-    <row r="95" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="68"/>
-      <c r="B95" s="68"/>
-      <c r="C95" s="68"/>
-      <c r="D95" s="68"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="70"/>
-      <c r="G95" s="70"/>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
+    <row r="95" spans="1:122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="70"/>
+      <c r="B95" s="70"/>
+      <c r="C95" s="70"/>
+      <c r="D95" s="70"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="72"/>
+      <c r="G95" s="72"/>
+      <c r="H95" s="72"/>
+      <c r="I95" s="72"/>
       <c r="J95" s="12" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K95:DR95)/データ!$D$2,"")</f>
         <v/>
@@ -19046,16 +19054,16 @@
       <c r="DQ95" s="37"/>
       <c r="DR95" s="38"/>
     </row>
-    <row r="96" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A96" s="69"/>
-      <c r="B96" s="69"/>
-      <c r="C96" s="69"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="71"/>
-      <c r="F96" s="71"/>
-      <c r="G96" s="71"/>
-      <c r="H96" s="71"/>
-      <c r="I96" s="71"/>
+    <row r="96" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A96" s="71"/>
+      <c r="B96" s="71"/>
+      <c r="C96" s="71"/>
+      <c r="D96" s="71"/>
+      <c r="E96" s="73"/>
+      <c r="F96" s="73"/>
+      <c r="G96" s="73"/>
+      <c r="H96" s="73"/>
+      <c r="I96" s="73"/>
       <c r="J96" s="13" t="str">
         <f>IF(C95&lt;&gt;"",SUM(K96:DR96)/データ!$D$2,"")</f>
         <v/>
@@ -19173,16 +19181,16 @@
       <c r="DQ96" s="40"/>
       <c r="DR96" s="41"/>
     </row>
-    <row r="97" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A97" s="68"/>
-      <c r="B97" s="68"/>
-      <c r="C97" s="68"/>
-      <c r="D97" s="68"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="70"/>
-      <c r="H97" s="70"/>
-      <c r="I97" s="70"/>
+    <row r="97" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A97" s="70"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="70"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="72"/>
+      <c r="H97" s="72"/>
+      <c r="I97" s="72"/>
       <c r="J97" s="12" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K97:DR97)/データ!$D$2,"")</f>
         <v/>
@@ -19300,16 +19308,16 @@
       <c r="DQ97" s="37"/>
       <c r="DR97" s="38"/>
     </row>
-    <row r="98" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A98" s="69"/>
-      <c r="B98" s="69"/>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="71"/>
-      <c r="F98" s="71"/>
-      <c r="G98" s="71"/>
-      <c r="H98" s="71"/>
-      <c r="I98" s="71"/>
+    <row r="98" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A98" s="71"/>
+      <c r="B98" s="71"/>
+      <c r="C98" s="71"/>
+      <c r="D98" s="71"/>
+      <c r="E98" s="73"/>
+      <c r="F98" s="73"/>
+      <c r="G98" s="73"/>
+      <c r="H98" s="73"/>
+      <c r="I98" s="73"/>
       <c r="J98" s="13" t="str">
         <f>IF(C97&lt;&gt;"",SUM(K98:DR98)/データ!$D$2,"")</f>
         <v/>
@@ -19427,16 +19435,16 @@
       <c r="DQ98" s="40"/>
       <c r="DR98" s="41"/>
     </row>
-    <row r="99" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A99" s="77"/>
-      <c r="B99" s="77"/>
-      <c r="C99" s="77"/>
-      <c r="D99" s="77"/>
-      <c r="E99" s="86"/>
-      <c r="F99" s="86"/>
-      <c r="G99" s="86"/>
-      <c r="H99" s="86"/>
-      <c r="I99" s="70"/>
+    <row r="99" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A99" s="68"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="69"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="72"/>
       <c r="J99" s="12" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K99:DR99)/データ!$D$2,"")</f>
         <v/>
@@ -19554,16 +19562,16 @@
       <c r="DQ99" s="37"/>
       <c r="DR99" s="38"/>
     </row>
-    <row r="100" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A100" s="77"/>
-      <c r="B100" s="77"/>
-      <c r="C100" s="77"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="86"/>
-      <c r="F100" s="86"/>
-      <c r="G100" s="86"/>
-      <c r="H100" s="86"/>
-      <c r="I100" s="71"/>
+    <row r="100" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A100" s="68"/>
+      <c r="B100" s="68"/>
+      <c r="C100" s="68"/>
+      <c r="D100" s="68"/>
+      <c r="E100" s="69"/>
+      <c r="F100" s="69"/>
+      <c r="G100" s="69"/>
+      <c r="H100" s="69"/>
+      <c r="I100" s="73"/>
       <c r="J100" s="13" t="str">
         <f>IF(C99&lt;&gt;"",SUM(K100:DR100)/データ!$D$2,"")</f>
         <v/>
@@ -19681,16 +19689,16 @@
       <c r="DQ100" s="40"/>
       <c r="DR100" s="41"/>
     </row>
-    <row r="101" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A101" s="77"/>
-      <c r="B101" s="77"/>
-      <c r="C101" s="77"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="86"/>
-      <c r="F101" s="86"/>
-      <c r="G101" s="86"/>
-      <c r="H101" s="86"/>
-      <c r="I101" s="70"/>
+    <row r="101" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A101" s="68"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="68"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="69"/>
+      <c r="F101" s="69"/>
+      <c r="G101" s="69"/>
+      <c r="H101" s="69"/>
+      <c r="I101" s="72"/>
       <c r="J101" s="12" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K101:DR101)/データ!$D$2,"")</f>
         <v/>
@@ -19808,16 +19816,16 @@
       <c r="DQ101" s="37"/>
       <c r="DR101" s="38"/>
     </row>
-    <row r="102" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A102" s="77"/>
-      <c r="B102" s="77"/>
-      <c r="C102" s="77"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="86"/>
-      <c r="F102" s="86"/>
-      <c r="G102" s="86"/>
-      <c r="H102" s="86"/>
-      <c r="I102" s="71"/>
+    <row r="102" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A102" s="68"/>
+      <c r="B102" s="68"/>
+      <c r="C102" s="68"/>
+      <c r="D102" s="68"/>
+      <c r="E102" s="69"/>
+      <c r="F102" s="69"/>
+      <c r="G102" s="69"/>
+      <c r="H102" s="69"/>
+      <c r="I102" s="73"/>
       <c r="J102" s="13" t="str">
         <f>IF(C101&lt;&gt;"",SUM(K102:DR102)/データ!$D$2,"")</f>
         <v/>
@@ -19935,16 +19943,16 @@
       <c r="DQ102" s="40"/>
       <c r="DR102" s="41"/>
     </row>
-    <row r="103" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A103" s="77"/>
-      <c r="B103" s="77"/>
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="86"/>
-      <c r="F103" s="86"/>
-      <c r="G103" s="86"/>
-      <c r="H103" s="86"/>
-      <c r="I103" s="70"/>
+    <row r="103" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A103" s="68"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="68"/>
+      <c r="D103" s="68"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="69"/>
+      <c r="H103" s="69"/>
+      <c r="I103" s="72"/>
       <c r="J103" s="12" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K103:DR103)/データ!$D$2,"")</f>
         <v/>
@@ -20062,16 +20070,16 @@
       <c r="DQ103" s="37"/>
       <c r="DR103" s="38"/>
     </row>
-    <row r="104" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A104" s="77"/>
-      <c r="B104" s="77"/>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="86"/>
-      <c r="F104" s="86"/>
-      <c r="G104" s="86"/>
-      <c r="H104" s="86"/>
-      <c r="I104" s="71"/>
+    <row r="104" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A104" s="68"/>
+      <c r="B104" s="68"/>
+      <c r="C104" s="68"/>
+      <c r="D104" s="68"/>
+      <c r="E104" s="69"/>
+      <c r="F104" s="69"/>
+      <c r="G104" s="69"/>
+      <c r="H104" s="69"/>
+      <c r="I104" s="73"/>
       <c r="J104" s="13" t="str">
         <f>IF(C103&lt;&gt;"",SUM(K104:DR104)/データ!$D$2,"")</f>
         <v/>
@@ -20189,16 +20197,16 @@
       <c r="DQ104" s="40"/>
       <c r="DR104" s="41"/>
     </row>
-    <row r="105" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A105" s="77"/>
-      <c r="B105" s="77"/>
-      <c r="C105" s="77"/>
-      <c r="D105" s="77"/>
-      <c r="E105" s="86"/>
-      <c r="F105" s="86"/>
-      <c r="G105" s="86"/>
-      <c r="H105" s="86"/>
-      <c r="I105" s="86"/>
+    <row r="105" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A105" s="68"/>
+      <c r="B105" s="68"/>
+      <c r="C105" s="68"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="69"/>
+      <c r="F105" s="69"/>
+      <c r="G105" s="69"/>
+      <c r="H105" s="69"/>
+      <c r="I105" s="69"/>
       <c r="J105" s="12" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K105:DR105)/データ!$D$2,"")</f>
         <v/>
@@ -20316,16 +20324,16 @@
       <c r="DQ105" s="37"/>
       <c r="DR105" s="38"/>
     </row>
-    <row r="106" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A106" s="77"/>
-      <c r="B106" s="77"/>
-      <c r="C106" s="77"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="86"/>
-      <c r="F106" s="86"/>
-      <c r="G106" s="86"/>
-      <c r="H106" s="86"/>
-      <c r="I106" s="86"/>
+    <row r="106" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A106" s="68"/>
+      <c r="B106" s="68"/>
+      <c r="C106" s="68"/>
+      <c r="D106" s="68"/>
+      <c r="E106" s="69"/>
+      <c r="F106" s="69"/>
+      <c r="G106" s="69"/>
+      <c r="H106" s="69"/>
+      <c r="I106" s="69"/>
       <c r="J106" s="13" t="str">
         <f>IF(C105&lt;&gt;"",SUM(K106:DR106)/データ!$D$2,"")</f>
         <v/>
@@ -20443,16 +20451,16 @@
       <c r="DQ106" s="40"/>
       <c r="DR106" s="41"/>
     </row>
-    <row r="107" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A107" s="77"/>
-      <c r="B107" s="77"/>
-      <c r="C107" s="77"/>
-      <c r="D107" s="77"/>
-      <c r="E107" s="86"/>
-      <c r="F107" s="86"/>
-      <c r="G107" s="86"/>
-      <c r="H107" s="86"/>
-      <c r="I107" s="70"/>
+    <row r="107" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A107" s="68"/>
+      <c r="B107" s="68"/>
+      <c r="C107" s="68"/>
+      <c r="D107" s="68"/>
+      <c r="E107" s="69"/>
+      <c r="F107" s="69"/>
+      <c r="G107" s="69"/>
+      <c r="H107" s="69"/>
+      <c r="I107" s="72"/>
       <c r="J107" s="12" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K107:DR107)/データ!$D$2,"")</f>
         <v/>
@@ -20570,16 +20578,16 @@
       <c r="DQ107" s="37"/>
       <c r="DR107" s="38"/>
     </row>
-    <row r="108" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A108" s="77"/>
-      <c r="B108" s="77"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="86"/>
-      <c r="F108" s="86"/>
-      <c r="G108" s="86"/>
-      <c r="H108" s="86"/>
-      <c r="I108" s="71"/>
+    <row r="108" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A108" s="68"/>
+      <c r="B108" s="68"/>
+      <c r="C108" s="68"/>
+      <c r="D108" s="68"/>
+      <c r="E108" s="69"/>
+      <c r="F108" s="69"/>
+      <c r="G108" s="69"/>
+      <c r="H108" s="69"/>
+      <c r="I108" s="73"/>
       <c r="J108" s="13" t="str">
         <f>IF(C107&lt;&gt;"",SUM(K108:DR108)/データ!$D$2,"")</f>
         <v/>
@@ -20697,16 +20705,16 @@
       <c r="DQ108" s="40"/>
       <c r="DR108" s="41"/>
     </row>
-    <row r="109" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A109" s="77"/>
-      <c r="B109" s="77"/>
-      <c r="C109" s="77"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="86"/>
-      <c r="F109" s="86"/>
-      <c r="G109" s="86"/>
-      <c r="H109" s="86"/>
-      <c r="I109" s="70"/>
+    <row r="109" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A109" s="68"/>
+      <c r="B109" s="68"/>
+      <c r="C109" s="68"/>
+      <c r="D109" s="68"/>
+      <c r="E109" s="69"/>
+      <c r="F109" s="69"/>
+      <c r="G109" s="69"/>
+      <c r="H109" s="69"/>
+      <c r="I109" s="72"/>
       <c r="J109" s="12" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K109:DR109)/データ!$D$2,"")</f>
         <v/>
@@ -20824,16 +20832,16 @@
       <c r="DQ109" s="37"/>
       <c r="DR109" s="38"/>
     </row>
-    <row r="110" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A110" s="77"/>
-      <c r="B110" s="77"/>
-      <c r="C110" s="77"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="86"/>
-      <c r="F110" s="86"/>
-      <c r="G110" s="86"/>
-      <c r="H110" s="86"/>
-      <c r="I110" s="71"/>
+    <row r="110" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A110" s="68"/>
+      <c r="B110" s="68"/>
+      <c r="C110" s="68"/>
+      <c r="D110" s="68"/>
+      <c r="E110" s="69"/>
+      <c r="F110" s="69"/>
+      <c r="G110" s="69"/>
+      <c r="H110" s="69"/>
+      <c r="I110" s="73"/>
       <c r="J110" s="13" t="str">
         <f>IF(C109&lt;&gt;"",SUM(K110:DR110)/データ!$D$2,"")</f>
         <v/>
@@ -20951,16 +20959,16 @@
       <c r="DQ110" s="40"/>
       <c r="DR110" s="41"/>
     </row>
-    <row r="111" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A111" s="77"/>
-      <c r="B111" s="77"/>
-      <c r="C111" s="77"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="86"/>
-      <c r="F111" s="86"/>
-      <c r="G111" s="86"/>
-      <c r="H111" s="86"/>
-      <c r="I111" s="70"/>
+    <row r="111" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A111" s="68"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="68"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="69"/>
+      <c r="F111" s="69"/>
+      <c r="G111" s="69"/>
+      <c r="H111" s="69"/>
+      <c r="I111" s="72"/>
       <c r="J111" s="12" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K111:DR111)/データ!$D$2,"")</f>
         <v/>
@@ -21078,16 +21086,16 @@
       <c r="DQ111" s="37"/>
       <c r="DR111" s="38"/>
     </row>
-    <row r="112" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A112" s="77"/>
-      <c r="B112" s="77"/>
-      <c r="C112" s="77"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="86"/>
-      <c r="F112" s="86"/>
-      <c r="G112" s="86"/>
-      <c r="H112" s="86"/>
-      <c r="I112" s="71"/>
+    <row r="112" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A112" s="68"/>
+      <c r="B112" s="68"/>
+      <c r="C112" s="68"/>
+      <c r="D112" s="68"/>
+      <c r="E112" s="69"/>
+      <c r="F112" s="69"/>
+      <c r="G112" s="69"/>
+      <c r="H112" s="69"/>
+      <c r="I112" s="73"/>
       <c r="J112" s="13" t="str">
         <f>IF(C111&lt;&gt;"",SUM(K112:DR112)/データ!$D$2,"")</f>
         <v/>
@@ -21205,16 +21213,16 @@
       <c r="DQ112" s="40"/>
       <c r="DR112" s="41"/>
     </row>
-    <row r="113" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A113" s="77"/>
-      <c r="B113" s="77"/>
-      <c r="C113" s="77"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="86"/>
-      <c r="F113" s="86"/>
-      <c r="G113" s="86"/>
-      <c r="H113" s="86"/>
-      <c r="I113" s="86"/>
+    <row r="113" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A113" s="68"/>
+      <c r="B113" s="68"/>
+      <c r="C113" s="68"/>
+      <c r="D113" s="68"/>
+      <c r="E113" s="69"/>
+      <c r="F113" s="69"/>
+      <c r="G113" s="69"/>
+      <c r="H113" s="69"/>
+      <c r="I113" s="69"/>
       <c r="J113" s="12" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K113:DR113)/データ!$D$2,"")</f>
         <v/>
@@ -21332,16 +21340,16 @@
       <c r="DQ113" s="37"/>
       <c r="DR113" s="38"/>
     </row>
-    <row r="114" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A114" s="77"/>
-      <c r="B114" s="77"/>
-      <c r="C114" s="77"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="86"/>
-      <c r="F114" s="86"/>
-      <c r="G114" s="86"/>
-      <c r="H114" s="86"/>
-      <c r="I114" s="86"/>
+    <row r="114" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A114" s="68"/>
+      <c r="B114" s="68"/>
+      <c r="C114" s="68"/>
+      <c r="D114" s="68"/>
+      <c r="E114" s="69"/>
+      <c r="F114" s="69"/>
+      <c r="G114" s="69"/>
+      <c r="H114" s="69"/>
+      <c r="I114" s="69"/>
       <c r="J114" s="13" t="str">
         <f>IF(C113&lt;&gt;"",SUM(K114:DR114)/データ!$D$2,"")</f>
         <v/>
@@ -21459,16 +21467,16 @@
       <c r="DQ114" s="40"/>
       <c r="DR114" s="41"/>
     </row>
-    <row r="115" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A115" s="77"/>
-      <c r="B115" s="77"/>
-      <c r="C115" s="77"/>
-      <c r="D115" s="77"/>
-      <c r="E115" s="86"/>
-      <c r="F115" s="86"/>
-      <c r="G115" s="86"/>
-      <c r="H115" s="86"/>
-      <c r="I115" s="86"/>
+    <row r="115" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A115" s="68"/>
+      <c r="B115" s="68"/>
+      <c r="C115" s="68"/>
+      <c r="D115" s="68"/>
+      <c r="E115" s="69"/>
+      <c r="F115" s="69"/>
+      <c r="G115" s="69"/>
+      <c r="H115" s="69"/>
+      <c r="I115" s="69"/>
       <c r="J115" s="12" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K115:DR115)/データ!$D$2,"")</f>
         <v/>
@@ -21586,16 +21594,16 @@
       <c r="DQ115" s="37"/>
       <c r="DR115" s="38"/>
     </row>
-    <row r="116" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A116" s="77"/>
-      <c r="B116" s="77"/>
-      <c r="C116" s="77"/>
-      <c r="D116" s="77"/>
-      <c r="E116" s="86"/>
-      <c r="F116" s="86"/>
-      <c r="G116" s="86"/>
-      <c r="H116" s="86"/>
-      <c r="I116" s="86"/>
+    <row r="116" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A116" s="68"/>
+      <c r="B116" s="68"/>
+      <c r="C116" s="68"/>
+      <c r="D116" s="68"/>
+      <c r="E116" s="69"/>
+      <c r="F116" s="69"/>
+      <c r="G116" s="69"/>
+      <c r="H116" s="69"/>
+      <c r="I116" s="69"/>
       <c r="J116" s="13" t="str">
         <f>IF(C115&lt;&gt;"",SUM(K116:DR116)/データ!$D$2,"")</f>
         <v/>
@@ -21713,16 +21721,16 @@
       <c r="DQ116" s="40"/>
       <c r="DR116" s="41"/>
     </row>
-    <row r="117" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A117" s="77"/>
-      <c r="B117" s="77"/>
-      <c r="C117" s="77"/>
-      <c r="D117" s="77"/>
-      <c r="E117" s="86"/>
-      <c r="F117" s="86"/>
-      <c r="G117" s="86"/>
-      <c r="H117" s="86"/>
-      <c r="I117" s="86"/>
+    <row r="117" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A117" s="68"/>
+      <c r="B117" s="68"/>
+      <c r="C117" s="68"/>
+      <c r="D117" s="68"/>
+      <c r="E117" s="69"/>
+      <c r="F117" s="69"/>
+      <c r="G117" s="69"/>
+      <c r="H117" s="69"/>
+      <c r="I117" s="69"/>
       <c r="J117" s="12" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K117:DR117)/データ!$D$2,"")</f>
         <v/>
@@ -21840,16 +21848,16 @@
       <c r="DQ117" s="37"/>
       <c r="DR117" s="38"/>
     </row>
-    <row r="118" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A118" s="77"/>
-      <c r="B118" s="77"/>
-      <c r="C118" s="77"/>
-      <c r="D118" s="77"/>
-      <c r="E118" s="86"/>
-      <c r="F118" s="86"/>
-      <c r="G118" s="86"/>
-      <c r="H118" s="86"/>
-      <c r="I118" s="86"/>
+    <row r="118" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A118" s="68"/>
+      <c r="B118" s="68"/>
+      <c r="C118" s="68"/>
+      <c r="D118" s="68"/>
+      <c r="E118" s="69"/>
+      <c r="F118" s="69"/>
+      <c r="G118" s="69"/>
+      <c r="H118" s="69"/>
+      <c r="I118" s="69"/>
       <c r="J118" s="13" t="str">
         <f>IF(C117&lt;&gt;"",SUM(K118:DR118)/データ!$D$2,"")</f>
         <v/>
@@ -21967,16 +21975,16 @@
       <c r="DQ118" s="40"/>
       <c r="DR118" s="41"/>
     </row>
-    <row r="119" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A119" s="77"/>
-      <c r="B119" s="77"/>
-      <c r="C119" s="77"/>
-      <c r="D119" s="77"/>
-      <c r="E119" s="86"/>
-      <c r="F119" s="86"/>
-      <c r="G119" s="86"/>
-      <c r="H119" s="86"/>
-      <c r="I119" s="86"/>
+    <row r="119" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A119" s="68"/>
+      <c r="B119" s="68"/>
+      <c r="C119" s="68"/>
+      <c r="D119" s="68"/>
+      <c r="E119" s="69"/>
+      <c r="F119" s="69"/>
+      <c r="G119" s="69"/>
+      <c r="H119" s="69"/>
+      <c r="I119" s="69"/>
       <c r="J119" s="12" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K119:DR119)/データ!$D$2,"")</f>
         <v/>
@@ -22094,16 +22102,16 @@
       <c r="DQ119" s="37"/>
       <c r="DR119" s="38"/>
     </row>
-    <row r="120" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A120" s="77"/>
-      <c r="B120" s="77"/>
-      <c r="C120" s="77"/>
-      <c r="D120" s="77"/>
-      <c r="E120" s="86"/>
-      <c r="F120" s="86"/>
-      <c r="G120" s="86"/>
-      <c r="H120" s="86"/>
-      <c r="I120" s="86"/>
+    <row r="120" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A120" s="68"/>
+      <c r="B120" s="68"/>
+      <c r="C120" s="68"/>
+      <c r="D120" s="68"/>
+      <c r="E120" s="69"/>
+      <c r="F120" s="69"/>
+      <c r="G120" s="69"/>
+      <c r="H120" s="69"/>
+      <c r="I120" s="69"/>
       <c r="J120" s="13" t="str">
         <f>IF(C119&lt;&gt;"",SUM(K120:DR120)/データ!$D$2,"")</f>
         <v/>
@@ -22221,16 +22229,16 @@
       <c r="DQ120" s="40"/>
       <c r="DR120" s="41"/>
     </row>
-    <row r="121" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A121" s="68"/>
-      <c r="B121" s="68"/>
-      <c r="C121" s="68"/>
-      <c r="D121" s="68"/>
-      <c r="E121" s="70"/>
-      <c r="F121" s="70"/>
-      <c r="G121" s="70"/>
-      <c r="H121" s="70"/>
-      <c r="I121" s="70"/>
+    <row r="121" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A121" s="70"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="70"/>
+      <c r="D121" s="70"/>
+      <c r="E121" s="72"/>
+      <c r="F121" s="72"/>
+      <c r="G121" s="72"/>
+      <c r="H121" s="72"/>
+      <c r="I121" s="72"/>
       <c r="J121" s="12" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K121:DR121)/データ!$D$2,"")</f>
         <v/>
@@ -22348,16 +22356,16 @@
       <c r="DQ121" s="37"/>
       <c r="DR121" s="38"/>
     </row>
-    <row r="122" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A122" s="69"/>
-      <c r="B122" s="69"/>
-      <c r="C122" s="69"/>
-      <c r="D122" s="69"/>
-      <c r="E122" s="71"/>
-      <c r="F122" s="71"/>
-      <c r="G122" s="71"/>
-      <c r="H122" s="71"/>
-      <c r="I122" s="71"/>
+    <row r="122" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A122" s="71"/>
+      <c r="B122" s="71"/>
+      <c r="C122" s="71"/>
+      <c r="D122" s="71"/>
+      <c r="E122" s="73"/>
+      <c r="F122" s="73"/>
+      <c r="G122" s="73"/>
+      <c r="H122" s="73"/>
+      <c r="I122" s="73"/>
       <c r="J122" s="13" t="str">
         <f>IF(C121&lt;&gt;"",SUM(K122:DR122)/データ!$D$2,"")</f>
         <v/>
@@ -22475,16 +22483,16 @@
       <c r="DQ122" s="40"/>
       <c r="DR122" s="41"/>
     </row>
-    <row r="123" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A123" s="77"/>
-      <c r="B123" s="77"/>
-      <c r="C123" s="77"/>
-      <c r="D123" s="77"/>
-      <c r="E123" s="86"/>
-      <c r="F123" s="86"/>
-      <c r="G123" s="86"/>
-      <c r="H123" s="86"/>
-      <c r="I123" s="86"/>
+    <row r="123" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A123" s="68"/>
+      <c r="B123" s="68"/>
+      <c r="C123" s="68"/>
+      <c r="D123" s="68"/>
+      <c r="E123" s="69"/>
+      <c r="F123" s="69"/>
+      <c r="G123" s="69"/>
+      <c r="H123" s="69"/>
+      <c r="I123" s="69"/>
       <c r="J123" s="12" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K123:DR123)/データ!$D$2,"")</f>
         <v/>
@@ -22602,16 +22610,16 @@
       <c r="DQ123" s="37"/>
       <c r="DR123" s="38"/>
     </row>
-    <row r="124" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A124" s="77"/>
-      <c r="B124" s="77"/>
-      <c r="C124" s="77"/>
-      <c r="D124" s="77"/>
-      <c r="E124" s="86"/>
-      <c r="F124" s="86"/>
-      <c r="G124" s="86"/>
-      <c r="H124" s="86"/>
-      <c r="I124" s="86"/>
+    <row r="124" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A124" s="68"/>
+      <c r="B124" s="68"/>
+      <c r="C124" s="68"/>
+      <c r="D124" s="68"/>
+      <c r="E124" s="69"/>
+      <c r="F124" s="69"/>
+      <c r="G124" s="69"/>
+      <c r="H124" s="69"/>
+      <c r="I124" s="69"/>
       <c r="J124" s="13" t="str">
         <f>IF(C123&lt;&gt;"",SUM(K124:DR124)/データ!$D$2,"")</f>
         <v/>
@@ -22729,16 +22737,16 @@
       <c r="DQ124" s="40"/>
       <c r="DR124" s="41"/>
     </row>
-    <row r="125" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A125" s="77"/>
-      <c r="B125" s="77"/>
-      <c r="C125" s="77"/>
-      <c r="D125" s="77"/>
-      <c r="E125" s="86"/>
-      <c r="F125" s="86"/>
-      <c r="G125" s="86"/>
-      <c r="H125" s="86"/>
-      <c r="I125" s="86"/>
+    <row r="125" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A125" s="68"/>
+      <c r="B125" s="68"/>
+      <c r="C125" s="68"/>
+      <c r="D125" s="68"/>
+      <c r="E125" s="69"/>
+      <c r="F125" s="69"/>
+      <c r="G125" s="69"/>
+      <c r="H125" s="69"/>
+      <c r="I125" s="69"/>
       <c r="J125" s="12" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K125:DR125)/データ!$D$2,"")</f>
         <v/>
@@ -22856,16 +22864,16 @@
       <c r="DQ125" s="37"/>
       <c r="DR125" s="38"/>
     </row>
-    <row r="126" spans="1:122" x14ac:dyDescent="0.2">
-      <c r="A126" s="77"/>
-      <c r="B126" s="77"/>
-      <c r="C126" s="77"/>
-      <c r="D126" s="77"/>
-      <c r="E126" s="86"/>
-      <c r="F126" s="86"/>
-      <c r="G126" s="86"/>
-      <c r="H126" s="86"/>
-      <c r="I126" s="86"/>
+    <row r="126" spans="1:122" x14ac:dyDescent="0.15">
+      <c r="A126" s="68"/>
+      <c r="B126" s="68"/>
+      <c r="C126" s="68"/>
+      <c r="D126" s="68"/>
+      <c r="E126" s="69"/>
+      <c r="F126" s="69"/>
+      <c r="G126" s="69"/>
+      <c r="H126" s="69"/>
+      <c r="I126" s="69"/>
       <c r="J126" s="13" t="str">
         <f>IF(C125&lt;&gt;"",SUM(K126:DR126)/データ!$D$2,"")</f>
         <v/>
@@ -22983,7 +22991,7 @@
       <c r="DQ126" s="40"/>
       <c r="DR126" s="41"/>
     </row>
-    <row r="128" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="25"/>
       <c r="J128" s="27" t="s">
         <v>10</v>
@@ -23437,7 +23445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="25"/>
       <c r="J129" s="27" t="s">
         <v>11</v>
@@ -23891,7 +23899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="25"/>
       <c r="J130" s="27" t="s">
         <v>34</v>
@@ -24346,7 +24354,7 @@
       </c>
       <c r="DS130" s="29"/>
     </row>
-    <row r="131" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="25"/>
       <c r="J131" s="27" t="s">
         <v>39</v>
@@ -24689,7 +24697,7 @@
       </c>
       <c r="DS131" s="29"/>
     </row>
-    <row r="132" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="25"/>
       <c r="J132" s="27" t="s">
         <v>36</v>
@@ -25143,7 +25151,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="133" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="25"/>
       <c r="J133" s="27" t="s">
         <v>37</v>
@@ -25597,7 +25605,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="25"/>
       <c r="J134" s="27" t="s">
         <v>38</v>
@@ -26051,10 +26059,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="135" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="25"/>
     </row>
-    <row r="136" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="25"/>
       <c r="K136" s="28" t="str">
         <f>IF($I5="完了",IF(COUNTA(K6:$DS6)=0,$J5,""),"")</f>
@@ -26070,7 +26078,7 @@
       <c r="S136" s="28"/>
       <c r="T136" s="28"/>
     </row>
-    <row r="137" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="25"/>
       <c r="J137" s="27" t="s">
         <v>35</v>
@@ -26524,7 +26532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="25"/>
       <c r="K138" s="29">
         <f>IF($I7="完了",IF(COUNTA(K8:$DR8)=0,$J7,0),0)</f>
@@ -26975,7 +26983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="25"/>
       <c r="K139" s="29">
         <f>IF($I9="完了",IF(COUNTA(K10:$DR10)=0,$J9,0),0)</f>
@@ -27426,7 +27434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="25"/>
       <c r="K140" s="29">
         <f>IF($I11="完了",IF(COUNTA(K12:$DR12)=0,$J11,0),0)</f>
@@ -27877,7 +27885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="25"/>
       <c r="K141" s="29">
         <f>IF($I13="完了",IF(COUNTA(K14:$DR14)=0,$J13,0),0)</f>
@@ -28328,7 +28336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="25"/>
       <c r="K142" s="29">
         <f>IF($I15="完了",IF(COUNTA(K16:$DR16)=0,$J15,0),0)</f>
@@ -28779,7 +28787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="25"/>
       <c r="K143" s="29">
         <f>IF($I17="完了",IF(COUNTA(K18:$DR18)=0,$J17,0),0)</f>
@@ -29230,7 +29238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:123" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="25"/>
       <c r="K144" s="29">
         <f>IF($I19="完了",IF(COUNTA(K20:$DR20)=0,$J19,0),0)</f>
@@ -29681,7 +29689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="25"/>
       <c r="K145" s="29">
         <f>IF($I21="完了",IF(COUNTA(K22:$DR22)=0,$J21,0),0)</f>
@@ -30132,7 +30140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="25"/>
       <c r="K146" s="29">
         <f>IF($I23="完了",IF(COUNTA(K24:$DR24)=0,$J23,0),0)</f>
@@ -30583,7 +30591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="25"/>
       <c r="K147" s="29">
         <f>IF($I25="完了",IF(COUNTA(K26:$DR26)=0,$J25,0),0)</f>
@@ -31034,7 +31042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="25"/>
       <c r="K148" s="29">
         <f>IF($I27="完了",IF(COUNTA(K28:$DR28)=0,$J27,0),0)</f>
@@ -31485,7 +31493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="25"/>
       <c r="K149" s="29">
         <f>IF($I29="完了",IF(COUNTA(K30:$DR30)=0,$J29,0),0)</f>
@@ -31936,7 +31944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="25"/>
       <c r="K150" s="29">
         <f>IF($I31="完了",IF(COUNTA(K32:$DR32)=0,$J31,0),0)</f>
@@ -32387,7 +32395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="25"/>
       <c r="K151" s="29">
         <f>IF($I33="完了",IF(COUNTA(K34:$DR34)=0,$J33,0),0)</f>
@@ -32838,7 +32846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="25"/>
       <c r="K152" s="29">
         <f>IF($I35="完了",IF(COUNTA(K36:$DR36)=0,$J35,0),0)</f>
@@ -33289,7 +33297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="25"/>
       <c r="K153" s="29">
         <f>IF($I37="完了",IF(COUNTA(K38:$DR38)=0,$J37,0),0)</f>
@@ -33740,7 +33748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="25"/>
       <c r="K154" s="29">
         <f>IF($I39="完了",IF(COUNTA(K40:$DR40)=0,$J39,0),0)</f>
@@ -34191,7 +34199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="25"/>
       <c r="K155" s="29">
         <f>IF($I41="完了",IF(COUNTA(K42:$DR42)=0,$J41,0),0)</f>
@@ -34642,7 +34650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="25"/>
       <c r="K156" s="29">
         <f>IF($I43="完了",IF(COUNTA(K44:$DR44)=0,$J43,0),0)</f>
@@ -35093,7 +35101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="25"/>
       <c r="K157" s="29">
         <f>IF($I45="完了",IF(COUNTA(K46:$DR46)=0,$J45,0),0)</f>
@@ -35544,7 +35552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="25"/>
       <c r="K158" s="29">
         <f>IF($I47="完了",IF(COUNTA(K48:$DR48)=0,$J47,0),0)</f>
@@ -35995,7 +36003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="25"/>
       <c r="K159" s="29">
         <f>IF($I49="完了",IF(COUNTA(K50:$DR50)=0,$J49,0),0)</f>
@@ -36446,7 +36454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="25"/>
       <c r="K160" s="29">
         <f>IF($I51="完了",IF(COUNTA(K52:$DR52)=0,$J51,0),0)</f>
@@ -36897,7 +36905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="25"/>
       <c r="K161" s="29">
         <f>IF($I53="完了",IF(COUNTA(K54:$DR54)=0,$J53,0),0)</f>
@@ -37348,7 +37356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="25"/>
       <c r="K162" s="29">
         <f>IF($I55="完了",IF(COUNTA(K56:$DR56)=0,$J55,0),0)</f>
@@ -37799,7 +37807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="25"/>
       <c r="K163" s="29">
         <f>IF($I57="完了",IF(COUNTA(K58:$DR58)=0,$J57,0),0)</f>
@@ -38250,7 +38258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="25"/>
       <c r="K164" s="29">
         <f>IF($I59="完了",IF(COUNTA(K60:$DR60)=0,$J59,0),0)</f>
@@ -38701,7 +38709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="25"/>
       <c r="K165" s="29">
         <f>IF($I61="完了",IF(COUNTA(K62:$DR62)=0,$J61,0),0)</f>
@@ -39152,7 +39160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="25"/>
       <c r="K166" s="29">
         <f>IF($I63="完了",IF(COUNTA(K64:$DR64)=0,$J63,0),0)</f>
@@ -39603,7 +39611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="25"/>
       <c r="K167" s="29">
         <f>IF($I65="完了",IF(COUNTA(K66:$DR66)=0,$J65,0),0)</f>
@@ -40054,7 +40062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="25"/>
       <c r="K168" s="29">
         <f>IF($I67="完了",IF(COUNTA(K68:$DR68)=0,$J67,0),0)</f>
@@ -40505,7 +40513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="25"/>
       <c r="K169" s="29">
         <f>IF($I69="完了",IF(COUNTA(K70:$DR70)=0,$J69,0),0)</f>
@@ -40956,7 +40964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="25"/>
       <c r="K170" s="29">
         <f>IF($I71="完了",IF(COUNTA(K72:$DR72)=0,$J71,0),0)</f>
@@ -41407,7 +41415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="25"/>
       <c r="K171" s="29">
         <f>IF($I73="完了",IF(COUNTA(K74:$DR74)=0,$J73,0),0)</f>
@@ -41858,7 +41866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="25"/>
       <c r="K172" s="29">
         <f>IF($I75="完了",IF(COUNTA(K76:$DR76)=0,$J75,0),0)</f>
@@ -42309,7 +42317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="25"/>
       <c r="K173" s="29">
         <f>IF($I77="完了",IF(COUNTA(K78:$DR78)=0,$J77,0),0)</f>
@@ -42760,7 +42768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="25"/>
       <c r="K174" s="29">
         <f>IF($I79="完了",IF(COUNTA(K80:$DR80)=0,$J79,0),0)</f>
@@ -43211,7 +43219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="25"/>
       <c r="K175" s="29">
         <f>IF($I81="完了",IF(COUNTA(K82:$DR82)=0,$J81,0),0)</f>
@@ -43662,7 +43670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="25"/>
       <c r="K176" s="29">
         <f>IF($I83="完了",IF(COUNTA(K84:$DR84)=0,$J83,0),0)</f>
@@ -44113,7 +44121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="25"/>
       <c r="K177" s="29">
         <f>IF($I85="完了",IF(COUNTA(K86:$DR86)=0,$J85,0),0)</f>
@@ -44564,7 +44572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="25"/>
       <c r="K178" s="29">
         <f>IF($I87="完了",IF(COUNTA(K88:$DR88)=0,$J87,0),0)</f>
@@ -45015,7 +45023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="25"/>
       <c r="K179" s="29">
         <f>IF($I89="完了",IF(COUNTA(K90:$DR90)=0,$J89,0),0)</f>
@@ -45466,7 +45474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="25"/>
       <c r="K180" s="29">
         <f>IF($I91="完了",IF(COUNTA(K92:$DR92)=0,$J91,0),0)</f>
@@ -45917,7 +45925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="25"/>
       <c r="K181" s="29">
         <f>IF($I93="完了",IF(COUNTA(K94:$DR94)=0,$J93,0),0)</f>
@@ -46368,7 +46376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="25"/>
       <c r="K182" s="29">
         <f>IF($I95="完了",IF(COUNTA(K96:$DR96)=0,$J95,0),0)</f>
@@ -46819,7 +46827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A183" s="25"/>
       <c r="K183" s="29">
         <f>IF($I97="完了",IF(COUNTA(K98:$DR98)=0,$J97,0),0)</f>
@@ -47270,7 +47278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="25"/>
       <c r="K184" s="29">
         <f>IF($I99="完了",IF(COUNTA(K100:$DR100)=0,$J99,0),0)</f>
@@ -47721,7 +47729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A185" s="25"/>
       <c r="K185" s="29">
         <f>IF($I101="完了",IF(COUNTA(K102:$DR102)=0,$J101,0),0)</f>
@@ -48172,7 +48180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A186" s="25"/>
       <c r="K186" s="29">
         <f>IF($I103="完了",IF(COUNTA(K104:$DR104)=0,$J103,0),0)</f>
@@ -48623,7 +48631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A187" s="25"/>
       <c r="K187" s="29">
         <f>IF($I105="完了",IF(COUNTA(K106:$DR106)=0,$J105,0),0)</f>
@@ -49074,7 +49082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A188" s="25"/>
       <c r="K188" s="29">
         <f>IF($I107="完了",IF(COUNTA(K108:$DR108)=0,$J107,0),0)</f>
@@ -49525,7 +49533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A189" s="25"/>
       <c r="K189" s="29">
         <f>IF($I109="完了",IF(COUNTA(K110:$DR110)=0,$J109,0),0)</f>
@@ -49976,7 +49984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A190" s="25"/>
       <c r="K190" s="29">
         <f>IF($I111="完了",IF(COUNTA(K112:$DR112)=0,$J111,0),0)</f>
@@ -50427,7 +50435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A191" s="25"/>
       <c r="K191" s="29">
         <f>IF($I113="完了",IF(COUNTA(K114:$DR114)=0,$J113,0),0)</f>
@@ -50878,7 +50886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A192" s="25"/>
       <c r="K192" s="29">
         <f>IF($I115="完了",IF(COUNTA(K116:$DR116)=0,$J115,0),0)</f>
@@ -51329,7 +51337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A193" s="25"/>
       <c r="K193" s="29">
         <f>IF($I117="完了",IF(COUNTA(K118:$DR118)=0,$J117,0),0)</f>
@@ -51780,7 +51788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" s="25"/>
       <c r="K194" s="29">
         <f>IF($I119="完了",IF(COUNTA(K120:$DR120)=0,$J119,0),0)</f>
@@ -52231,7 +52239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="25"/>
       <c r="K195" s="29">
         <f>IF($I121="完了",IF(COUNTA(K122:$DR122)=0,$J121,0),0)</f>
@@ -52682,7 +52690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="25"/>
       <c r="K196" s="29">
         <f>IF($I123="完了",IF(COUNTA(K124:$DR124)=0,$J123,0),0)</f>
@@ -53133,7 +53141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:122" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="25"/>
       <c r="K197" s="29">
         <f>IF($I125="完了",IF(COUNTA(K126:$DR126)=0,$J125,0),0)</f>
@@ -53589,372 +53597,179 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="563">
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="H113:H114"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="H111:H112"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="H105:H106"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
@@ -53979,179 +53794,372 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="H111:H112"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="H113:H114"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K131:DR131 K4:DR4">
@@ -56185,47 +56193,47 @@
       <selection activeCell="AR40" sqref="AR40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" customWidth="1"/>
-    <col min="3" max="8" width="7.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" customWidth="1"/>
-    <col min="10" max="15" width="7.6640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" customWidth="1"/>
-    <col min="17" max="18" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="8" width="7.625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" customWidth="1"/>
+    <col min="10" max="15" width="7.625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.375" customWidth="1"/>
+    <col min="17" max="18" width="7.625" hidden="1" customWidth="1"/>
     <col min="19" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="6.44140625" customWidth="1"/>
+    <col min="23" max="23" width="6.5" customWidth="1"/>
     <col min="24" max="29" width="0" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="6.44140625" customWidth="1"/>
+    <col min="30" max="30" width="6.5" customWidth="1"/>
     <col min="31" max="36" width="0" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="6.44140625" customWidth="1"/>
+    <col min="37" max="37" width="6.5" customWidth="1"/>
     <col min="38" max="43" width="0" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="6.44140625" customWidth="1"/>
+    <col min="44" max="44" width="6.5" customWidth="1"/>
     <col min="45" max="50" width="0" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="6.44140625" customWidth="1"/>
+    <col min="51" max="51" width="6.5" customWidth="1"/>
     <col min="52" max="57" width="0" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="6.44140625" customWidth="1"/>
+    <col min="58" max="58" width="6.5" customWidth="1"/>
     <col min="59" max="64" width="0" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="6.44140625" customWidth="1"/>
+    <col min="65" max="65" width="6.5" customWidth="1"/>
     <col min="66" max="71" width="0" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="6.44140625" customWidth="1"/>
+    <col min="72" max="72" width="6.5" customWidth="1"/>
     <col min="73" max="78" width="0" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="6.44140625" customWidth="1"/>
+    <col min="79" max="79" width="6.5" customWidth="1"/>
     <col min="80" max="85" width="0" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="6.44140625" customWidth="1"/>
+    <col min="86" max="86" width="6.5" customWidth="1"/>
     <col min="87" max="92" width="0" hidden="1" customWidth="1"/>
-    <col min="93" max="93" width="6.44140625" customWidth="1"/>
+    <col min="93" max="93" width="6.5" customWidth="1"/>
     <col min="94" max="99" width="0" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="6.44140625" customWidth="1"/>
+    <col min="100" max="100" width="6.5" customWidth="1"/>
     <col min="101" max="106" width="0" hidden="1" customWidth="1"/>
-    <col min="107" max="107" width="6.44140625" customWidth="1"/>
+    <col min="107" max="107" width="6.5" customWidth="1"/>
     <col min="108" max="112" width="0" hidden="1" customWidth="1"/>
-    <col min="113" max="113" width="6.44140625" customWidth="1"/>
+    <col min="113" max="113" width="6.5" customWidth="1"/>
     <col min="114" max="114" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="27" spans="1:113" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:113" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="47" t="str">
         <f>ガント!J131</f>
         <v>日付</v>
@@ -56679,7 +56687,7 @@
         <v>41851</v>
       </c>
     </row>
-    <row r="28" spans="1:113" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:113" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A28" s="50" t="str">
         <f>ガント!J132</f>
         <v>PV</v>
@@ -57133,7 +57141,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:113" x14ac:dyDescent="0.15">
       <c r="A29" s="36" t="str">
         <f>ガント!J133</f>
         <v>AC</v>
@@ -57362,65 +57370,65 @@
         <f ca="1">IF(TODAY()&gt;=BE$27,ガント!BN133,NA())</f>
         <v>176</v>
       </c>
-      <c r="BF29" s="51" t="e">
+      <c r="BF29" s="51">
         <f ca="1">IF(TODAY()&gt;=BF$27,ガント!BO133,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BG29" s="51" t="e">
+        <v>176</v>
+      </c>
+      <c r="BG29" s="51">
         <f ca="1">IF(TODAY()&gt;=BG$27,ガント!BP133,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BH29" s="51" t="e">
+        <v>176</v>
+      </c>
+      <c r="BH29" s="51">
         <f ca="1">IF(TODAY()&gt;=BH$27,ガント!BQ133,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BI29" s="51" t="e">
+        <v>176</v>
+      </c>
+      <c r="BI29" s="51">
         <f ca="1">IF(TODAY()&gt;=BI$27,ガント!BR133,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ29" s="51" t="e">
+        <v>176</v>
+      </c>
+      <c r="BJ29" s="51">
         <f ca="1">IF(TODAY()&gt;=BJ$27,ガント!BS133,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BK29" s="51" t="e">
+        <v>176</v>
+      </c>
+      <c r="BK29" s="51">
         <f ca="1">IF(TODAY()&gt;=BK$27,ガント!BT133,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BL29" s="51" t="e">
+        <v>176</v>
+      </c>
+      <c r="BL29" s="51">
         <f ca="1">IF(TODAY()&gt;=BL$27,ガント!BU133,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BM29" s="51" t="e">
+        <v>176</v>
+      </c>
+      <c r="BM29" s="51">
         <f ca="1">IF(TODAY()&gt;=BM$27,ガント!BV133,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BN29" s="51" t="e">
+        <v>176</v>
+      </c>
+      <c r="BN29" s="51">
         <f ca="1">IF(TODAY()&gt;=BN$27,ガント!BW133,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BO29" s="51" t="e">
+        <v>176</v>
+      </c>
+      <c r="BO29" s="51">
         <f ca="1">IF(TODAY()&gt;=BO$27,ガント!BX133,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BP29" s="51" t="e">
+        <v>176</v>
+      </c>
+      <c r="BP29" s="51">
         <f ca="1">IF(TODAY()&gt;=BP$27,ガント!BY133,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BQ29" s="51" t="e">
+        <v>176</v>
+      </c>
+      <c r="BQ29" s="51">
         <f ca="1">IF(TODAY()&gt;=BQ$27,ガント!BZ133,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BR29" s="51" t="e">
+        <v>176</v>
+      </c>
+      <c r="BR29" s="51">
         <f ca="1">IF(TODAY()&gt;=BR$27,ガント!CA133,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BS29" s="51" t="e">
+        <v>176</v>
+      </c>
+      <c r="BS29" s="51">
         <f ca="1">IF(TODAY()&gt;=BS$27,ガント!CB133,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BT29" s="51" t="e">
+        <v>176</v>
+      </c>
+      <c r="BT29" s="51">
         <f ca="1">IF(TODAY()&gt;=BT$27,ガント!CC133,NA())</f>
-        <v>#N/A</v>
+        <v>176</v>
       </c>
       <c r="BU29" s="51" t="e">
         <f ca="1">IF(TODAY()&gt;=BU$27,ガント!CD133,NA())</f>
@@ -57587,7 +57595,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:113" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:113" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="47" t="str">
         <f>ガント!J134</f>
         <v>EV</v>
@@ -57816,65 +57824,65 @@
         <f ca="1">IF(TODAY()&gt;=BE$27,ガント!BN134,NA())</f>
         <v>102</v>
       </c>
-      <c r="BF30" s="48" t="e">
+      <c r="BF30" s="48">
         <f ca="1">IF(TODAY()&gt;=BF$27,ガント!BO134,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BG30" s="48" t="e">
+        <v>102</v>
+      </c>
+      <c r="BG30" s="48">
         <f ca="1">IF(TODAY()&gt;=BG$27,ガント!BP134,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BH30" s="48" t="e">
+        <v>102</v>
+      </c>
+      <c r="BH30" s="48">
         <f ca="1">IF(TODAY()&gt;=BH$27,ガント!BQ134,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BI30" s="48" t="e">
+        <v>102</v>
+      </c>
+      <c r="BI30" s="48">
         <f ca="1">IF(TODAY()&gt;=BI$27,ガント!BR134,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ30" s="48" t="e">
+        <v>102</v>
+      </c>
+      <c r="BJ30" s="48">
         <f ca="1">IF(TODAY()&gt;=BJ$27,ガント!BS134,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BK30" s="48" t="e">
+        <v>102</v>
+      </c>
+      <c r="BK30" s="48">
         <f ca="1">IF(TODAY()&gt;=BK$27,ガント!BT134,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BL30" s="48" t="e">
+        <v>102</v>
+      </c>
+      <c r="BL30" s="48">
         <f ca="1">IF(TODAY()&gt;=BL$27,ガント!BU134,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BM30" s="48" t="e">
+        <v>102</v>
+      </c>
+      <c r="BM30" s="48">
         <f ca="1">IF(TODAY()&gt;=BM$27,ガント!BV134,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BN30" s="48" t="e">
+        <v>102</v>
+      </c>
+      <c r="BN30" s="48">
         <f ca="1">IF(TODAY()&gt;=BN$27,ガント!BW134,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BO30" s="48" t="e">
+        <v>102</v>
+      </c>
+      <c r="BO30" s="48">
         <f ca="1">IF(TODAY()&gt;=BO$27,ガント!BX134,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BP30" s="48" t="e">
+        <v>102</v>
+      </c>
+      <c r="BP30" s="48">
         <f ca="1">IF(TODAY()&gt;=BP$27,ガント!BY134,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BQ30" s="48" t="e">
+        <v>102</v>
+      </c>
+      <c r="BQ30" s="48">
         <f ca="1">IF(TODAY()&gt;=BQ$27,ガント!BZ134,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BR30" s="48" t="e">
+        <v>102</v>
+      </c>
+      <c r="BR30" s="48">
         <f ca="1">IF(TODAY()&gt;=BR$27,ガント!CA134,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BS30" s="48" t="e">
+        <v>102</v>
+      </c>
+      <c r="BS30" s="48">
         <f ca="1">IF(TODAY()&gt;=BS$27,ガント!CB134,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BT30" s="48" t="e">
+        <v>102</v>
+      </c>
+      <c r="BT30" s="48">
         <f ca="1">IF(TODAY()&gt;=BT$27,ガント!CC134,NA())</f>
-        <v>#N/A</v>
+        <v>102</v>
       </c>
       <c r="BU30" s="48" t="e">
         <f ca="1">IF(TODAY()&gt;=BU$27,ガント!CD134,NA())</f>
@@ -58041,7 +58049,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:113" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:113" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A31" s="45" t="s">
         <v>41</v>
       </c>
@@ -58269,65 +58277,65 @@
         <f t="shared" ca="1" si="1"/>
         <v>-51</v>
       </c>
-      <c r="BF31" s="46" t="e">
+      <c r="BF31" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BG31" s="46" t="e">
+        <v>-66</v>
+      </c>
+      <c r="BG31" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BH31" s="46" t="e">
+        <v>-66</v>
+      </c>
+      <c r="BH31" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BI31" s="46" t="e">
+        <v>-66</v>
+      </c>
+      <c r="BI31" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ31" s="46" t="e">
+        <v>-69</v>
+      </c>
+      <c r="BJ31" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BK31" s="46" t="e">
+        <v>-72</v>
+      </c>
+      <c r="BK31" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BL31" s="46" t="e">
+        <v>-75</v>
+      </c>
+      <c r="BL31" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BM31" s="46" t="e">
+        <v>-78</v>
+      </c>
+      <c r="BM31" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BN31" s="46" t="e">
+        <v>-93</v>
+      </c>
+      <c r="BN31" s="46">
         <f t="shared" ref="BN31:CS31" ca="1" si="2">IF(ISERR(BN30-BN28),NA(),BN30-BN28)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BO31" s="46" t="e">
+        <v>-93</v>
+      </c>
+      <c r="BO31" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BP31" s="46" t="e">
+        <v>-93</v>
+      </c>
+      <c r="BP31" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BQ31" s="46" t="e">
+        <v>-97</v>
+      </c>
+      <c r="BQ31" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BR31" s="46" t="e">
+        <v>-101</v>
+      </c>
+      <c r="BR31" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BS31" s="46" t="e">
+        <v>-105</v>
+      </c>
+      <c r="BS31" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BT31" s="46" t="e">
+        <v>-109</v>
+      </c>
+      <c r="BT31" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>-122</v>
       </c>
       <c r="BU31" s="46" t="e">
         <f t="shared" ca="1" si="2"/>
@@ -58494,7 +58502,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:113" x14ac:dyDescent="0.15">
       <c r="A32" s="43" t="s">
         <v>42</v>
       </c>
@@ -58722,65 +58730,65 @@
         <f t="shared" ca="1" si="5"/>
         <v>-74</v>
       </c>
-      <c r="BF32" s="44" t="e">
+      <c r="BF32" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BG32" s="44" t="e">
+        <v>-74</v>
+      </c>
+      <c r="BG32" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BH32" s="44" t="e">
+        <v>-74</v>
+      </c>
+      <c r="BH32" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BI32" s="44" t="e">
+        <v>-74</v>
+      </c>
+      <c r="BI32" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ32" s="44" t="e">
+        <v>-74</v>
+      </c>
+      <c r="BJ32" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BK32" s="44" t="e">
+        <v>-74</v>
+      </c>
+      <c r="BK32" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BL32" s="44" t="e">
+        <v>-74</v>
+      </c>
+      <c r="BL32" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BM32" s="44" t="e">
+        <v>-74</v>
+      </c>
+      <c r="BM32" s="44">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BN32" s="44" t="e">
+        <v>-74</v>
+      </c>
+      <c r="BN32" s="44">
         <f t="shared" ref="BN32:CS32" ca="1" si="6">IF(ISERR(BN30-BN29),NA(),BN30-BN29)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BO32" s="44" t="e">
+        <v>-74</v>
+      </c>
+      <c r="BO32" s="44">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BP32" s="44" t="e">
+        <v>-74</v>
+      </c>
+      <c r="BP32" s="44">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BQ32" s="44" t="e">
+        <v>-74</v>
+      </c>
+      <c r="BQ32" s="44">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BR32" s="44" t="e">
+        <v>-74</v>
+      </c>
+      <c r="BR32" s="44">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BS32" s="44" t="e">
+        <v>-74</v>
+      </c>
+      <c r="BS32" s="44">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BT32" s="44" t="e">
+        <v>-74</v>
+      </c>
+      <c r="BT32" s="44">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
+        <v>-74</v>
       </c>
       <c r="BU32" s="44" t="e">
         <f t="shared" ca="1" si="6"/>
@@ -58947,7 +58955,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:113" x14ac:dyDescent="0.15">
       <c r="A33" s="43" t="s">
         <v>43</v>
       </c>
@@ -59175,65 +59183,65 @@
         <f t="shared" ca="1" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="BF33" s="49" t="e">
+      <c r="BF33" s="49">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BG33" s="49" t="e">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="BG33" s="49">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BH33" s="49" t="e">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="BH33" s="49">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BI33" s="49" t="e">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="BI33" s="49">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ33" s="49" t="e">
+        <v>0.59649122807017541</v>
+      </c>
+      <c r="BJ33" s="49">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BK33" s="49" t="e">
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="BK33" s="49">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BL33" s="49" t="e">
+        <v>0.57627118644067798</v>
+      </c>
+      <c r="BL33" s="49">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BM33" s="49" t="e">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="BM33" s="49">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BN33" s="49" t="e">
+        <v>0.52307692307692311</v>
+      </c>
+      <c r="BN33" s="49">
         <f t="shared" ref="BN33:CS33" ca="1" si="10">IF(ISERR(BN30/BN28),NA(),BN30/BN28)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BO33" s="49" t="e">
+        <v>0.52307692307692311</v>
+      </c>
+      <c r="BO33" s="49">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BP33" s="49" t="e">
+        <v>0.52307692307692311</v>
+      </c>
+      <c r="BP33" s="49">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BQ33" s="49" t="e">
+        <v>0.51256281407035176</v>
+      </c>
+      <c r="BQ33" s="49">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BR33" s="49" t="e">
+        <v>0.50246305418719217</v>
+      </c>
+      <c r="BR33" s="49">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BS33" s="49" t="e">
+        <v>0.49275362318840582</v>
+      </c>
+      <c r="BS33" s="49">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BT33" s="49" t="e">
+        <v>0.48341232227488151</v>
+      </c>
+      <c r="BT33" s="49">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
+        <v>0.45535714285714285</v>
       </c>
       <c r="BU33" s="49" t="e">
         <f t="shared" ca="1" si="10"/>
@@ -59400,7 +59408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:113" x14ac:dyDescent="0.15">
       <c r="A34" s="43" t="s">
         <v>44</v>
       </c>
@@ -59628,65 +59636,65 @@
         <f t="shared" ca="1" si="13"/>
         <v>0.57954545454545459</v>
       </c>
-      <c r="BF34" s="49" t="e">
+      <c r="BF34" s="49">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BG34" s="49" t="e">
+        <v>0.57954545454545459</v>
+      </c>
+      <c r="BG34" s="49">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BH34" s="49" t="e">
+        <v>0.57954545454545459</v>
+      </c>
+      <c r="BH34" s="49">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BI34" s="49" t="e">
+        <v>0.57954545454545459</v>
+      </c>
+      <c r="BI34" s="49">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ34" s="49" t="e">
+        <v>0.57954545454545459</v>
+      </c>
+      <c r="BJ34" s="49">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BK34" s="49" t="e">
+        <v>0.57954545454545459</v>
+      </c>
+      <c r="BK34" s="49">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BL34" s="49" t="e">
+        <v>0.57954545454545459</v>
+      </c>
+      <c r="BL34" s="49">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BM34" s="49" t="e">
+        <v>0.57954545454545459</v>
+      </c>
+      <c r="BM34" s="49">
         <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BN34" s="49" t="e">
+        <v>0.57954545454545459</v>
+      </c>
+      <c r="BN34" s="49">
         <f t="shared" ref="BN34:CS34" ca="1" si="14">IF(ISERR(BN30/BN29),NA(),BN30/BN29)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BO34" s="49" t="e">
+        <v>0.57954545454545459</v>
+      </c>
+      <c r="BO34" s="49">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BP34" s="49" t="e">
+        <v>0.57954545454545459</v>
+      </c>
+      <c r="BP34" s="49">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BQ34" s="49" t="e">
+        <v>0.57954545454545459</v>
+      </c>
+      <c r="BQ34" s="49">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BR34" s="49" t="e">
+        <v>0.57954545454545459</v>
+      </c>
+      <c r="BR34" s="49">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BS34" s="49" t="e">
+        <v>0.57954545454545459</v>
+      </c>
+      <c r="BS34" s="49">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BT34" s="49" t="e">
+        <v>0.57954545454545459</v>
+      </c>
+      <c r="BT34" s="49">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
+        <v>0.57954545454545459</v>
       </c>
       <c r="BU34" s="49" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -59885,24 +59893,24 @@
       <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="2" customWidth="1"/>
     <col min="2" max="3" width="13" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="60" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="60"/>
-    <col min="8" max="8" width="19.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="66" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="61" t="s">
         <v>91</v>
       </c>
@@ -59928,7 +59936,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="67" t="s">
         <v>101</v>
       </c>
@@ -59952,7 +59960,7 @@
       </c>
       <c r="H4" s="65"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="63">
         <f>ROW()-4</f>
         <v>1</v>
@@ -59965,7 +59973,7 @@
       <c r="G5" s="64"/>
       <c r="H5" s="65"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="63">
         <f t="shared" ref="A6:A29" si="0">ROW()-4</f>
         <v>2</v>
@@ -59978,7 +59986,7 @@
       <c r="G6" s="64"/>
       <c r="H6" s="65"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="63">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -59991,7 +59999,7 @@
       <c r="G7" s="64"/>
       <c r="H7" s="65"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="63">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -60004,7 +60012,7 @@
       <c r="G8" s="64"/>
       <c r="H8" s="65"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="63">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -60017,7 +60025,7 @@
       <c r="G9" s="64"/>
       <c r="H9" s="65"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="63">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -60030,7 +60038,7 @@
       <c r="G10" s="64"/>
       <c r="H10" s="65"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="63">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -60043,7 +60051,7 @@
       <c r="G11" s="64"/>
       <c r="H11" s="65"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="63">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -60056,7 +60064,7 @@
       <c r="G12" s="64"/>
       <c r="H12" s="65"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="63">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -60069,7 +60077,7 @@
       <c r="G13" s="64"/>
       <c r="H13" s="65"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="63">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -60082,7 +60090,7 @@
       <c r="G14" s="64"/>
       <c r="H14" s="65"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="63">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -60095,7 +60103,7 @@
       <c r="G15" s="64"/>
       <c r="H15" s="65"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="63">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -60108,7 +60116,7 @@
       <c r="G16" s="64"/>
       <c r="H16" s="65"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="63">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -60121,7 +60129,7 @@
       <c r="G17" s="64"/>
       <c r="H17" s="65"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="63">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -60134,7 +60142,7 @@
       <c r="G18" s="64"/>
       <c r="H18" s="65"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="63">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -60147,7 +60155,7 @@
       <c r="G19" s="64"/>
       <c r="H19" s="65"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="63">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -60160,7 +60168,7 @@
       <c r="G20" s="64"/>
       <c r="H20" s="65"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="63">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -60173,7 +60181,7 @@
       <c r="G21" s="64"/>
       <c r="H21" s="65"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="63">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -60186,7 +60194,7 @@
       <c r="G22" s="64"/>
       <c r="H22" s="65"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="63">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -60199,7 +60207,7 @@
       <c r="G23" s="64"/>
       <c r="H23" s="65"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="63">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -60212,7 +60220,7 @@
       <c r="G24" s="64"/>
       <c r="H24" s="65"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="63">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -60225,7 +60233,7 @@
       <c r="G25" s="64"/>
       <c r="H25" s="65"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="63">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -60238,7 +60246,7 @@
       <c r="G26" s="64"/>
       <c r="H26" s="65"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="63">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -60251,7 +60259,7 @@
       <c r="G27" s="64"/>
       <c r="H27" s="65"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="63">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -60264,7 +60272,7 @@
       <c r="G28" s="64"/>
       <c r="H28" s="65"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="63">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -60314,7 +60322,7 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -60329,20 +60337,20 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -60367,7 +60375,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" s="53">
         <v>1</v>
       </c>
@@ -60391,7 +60399,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -60418,7 +60426,7 @@
       </c>
       <c r="I3" s="58"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="53">
         <v>3</v>
       </c>
@@ -60444,7 +60452,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="53">
         <v>4</v>
       </c>
@@ -60468,7 +60476,7 @@
       </c>
       <c r="I5" s="57"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -60491,7 +60499,7 @@
       <c r="H6" s="53"/>
       <c r="I6" s="57"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="53">
         <v>6</v>
       </c>
@@ -60511,7 +60519,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="57"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="53">
         <v>7</v>
       </c>
@@ -60535,7 +60543,7 @@
       </c>
       <c r="I8" s="57"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="53">
         <v>8</v>
       </c>
@@ -60559,7 +60567,7 @@
       </c>
       <c r="I9" s="57"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -60584,7 +60592,7 @@
       </c>
       <c r="I10" s="57"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" s="53">
         <v>10</v>
       </c>
@@ -60604,7 +60612,7 @@
       <c r="H11" s="53"/>
       <c r="I11" s="57"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="53">
         <v>11</v>
       </c>
@@ -60624,7 +60632,7 @@
       <c r="H12" s="53"/>
       <c r="I12" s="57"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13" s="53">
         <v>12</v>
       </c>
@@ -60648,7 +60656,7 @@
       </c>
       <c r="I13" s="57"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="53">
         <v>13</v>
       </c>
@@ -60672,7 +60680,7 @@
       </c>
       <c r="I14" s="57"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -60699,7 +60707,7 @@
       </c>
       <c r="I15" s="57"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="53">
         <v>15</v>
       </c>
@@ -60737,17 +60745,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
@@ -60759,7 +60767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
         <v>151</v>
       </c>
@@ -60773,7 +60781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="s">
         <v>152</v>
       </c>
@@ -60784,7 +60792,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="21" t="s">
         <v>153</v>
       </c>
@@ -60795,77 +60803,77 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="21"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="18"/>
       <c r="B6" s="22"/>
       <c r="C6" s="21"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="18"/>
       <c r="B7" s="22"/>
       <c r="C7" s="21"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="18"/>
       <c r="B8" s="22"/>
       <c r="C8" s="21"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="18"/>
       <c r="B9" s="22"/>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
       <c r="B10" s="22"/>
       <c r="C10" s="21"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
       <c r="C12" s="19"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
       <c r="C13" s="19"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
       <c r="C15" s="19"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="C16" s="19"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="19"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19" s="20"/>
       <c r="C19" s="19"/>
     </row>
@@ -60890,4 +60898,91 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>655</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>27000</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B9" si="0">A4*1.08</f>
+        <v>29160.000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>65500</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>70740</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>18000</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>19440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6000</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <f>SUM(A3:A8)</f>
+        <v>118500</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>127980.00000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>